--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1843071.092209985</v>
+        <v>1842332.820261233</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3077639.647429019</v>
+        <v>3077639.647429018</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>275.6035306428048</v>
       </c>
       <c r="D11" t="n">
-        <v>266.5848346873328</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>288.3269722572383</v>
       </c>
       <c r="F11" t="n">
         <v>307.4987883452155</v>
       </c>
       <c r="G11" t="n">
-        <v>308.8938582033354</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.82925645536289</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.58160735762588</v>
+        <v>70.58160735762586</v>
       </c>
       <c r="T11" t="n">
         <v>117.248504451536</v>
@@ -1427,16 +1427,16 @@
         <v>149.7825366422858</v>
       </c>
       <c r="V11" t="n">
-        <v>231.0985909253022</v>
+        <v>140.2410964238123</v>
       </c>
       <c r="W11" t="n">
-        <v>117.6557652451799</v>
+        <v>256.3986904032591</v>
       </c>
       <c r="X11" t="n">
         <v>275.6989486360057</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>287.0955464322045</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H12" t="n">
-        <v>96.15737859072274</v>
+        <v>96.15737859072273</v>
       </c>
       <c r="I12" t="n">
-        <v>57.78400411843769</v>
+        <v>57.78400411843694</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.30756351047145</v>
+        <v>41.30756351047142</v>
       </c>
       <c r="S12" t="n">
         <v>145.9227365679431</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66068188454696</v>
+        <v>34.66068188454695</v>
       </c>
       <c r="S13" t="n">
         <v>104.8545326755172</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.5922136851231</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>275.6035306428048</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>263.5913408899303</v>
       </c>
       <c r="E14" t="n">
-        <v>288.3269722572383</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>307.4987883452154</v>
+        <v>307.4987883452155</v>
       </c>
       <c r="G14" t="n">
-        <v>308.8938582033354</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4703505509403</v>
+        <v>221.4703505509402</v>
       </c>
       <c r="I14" t="n">
-        <v>47.82925645536287</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.81046561734422</v>
+        <v>70.58160735762586</v>
       </c>
       <c r="T14" t="n">
-        <v>117.2485044515359</v>
+        <v>117.248504451536</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.7825366422858</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.0985909253022</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>256.3986904032591</v>
       </c>
       <c r="X14" t="n">
-        <v>275.6989486360056</v>
+        <v>275.6989486360057</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.0955464322044</v>
+        <v>287.0955464322045</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H15" t="n">
-        <v>96.15737859072274</v>
+        <v>96.15737859072394</v>
       </c>
       <c r="I15" t="n">
-        <v>57.78400411843697</v>
+        <v>57.78400411843694</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.30756351047147</v>
+        <v>41.30756351047142</v>
       </c>
       <c r="S15" t="n">
         <v>145.9227365679431</v>
@@ -1743,7 +1743,7 @@
         <v>216.2908996528225</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261496</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.2089245598201</v>
+        <v>79.20892455982015</v>
       </c>
       <c r="C16" t="n">
-        <v>65.40891940522059</v>
+        <v>65.40891940522063</v>
       </c>
       <c r="D16" t="n">
-        <v>49.03028380279898</v>
+        <v>49.03028380279902</v>
       </c>
       <c r="E16" t="n">
-        <v>47.97803365857843</v>
+        <v>47.97803365857847</v>
       </c>
       <c r="F16" t="n">
-        <v>48.44495798676473</v>
+        <v>48.44495798676478</v>
       </c>
       <c r="G16" t="n">
-        <v>64.47824359581065</v>
+        <v>64.4782435958107</v>
       </c>
       <c r="H16" t="n">
-        <v>53.12161073233682</v>
+        <v>53.12161073233686</v>
       </c>
       <c r="I16" t="n">
-        <v>32.9900525384073</v>
+        <v>32.99005253840733</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66068188454693</v>
+        <v>34.66068188454694</v>
       </c>
       <c r="S16" t="n">
         <v>104.8545326755172</v>
@@ -1819,7 +1819,7 @@
         <v>127.3047637349266</v>
       </c>
       <c r="U16" t="n">
-        <v>181.7942784719496</v>
+        <v>181.7942784719497</v>
       </c>
       <c r="V16" t="n">
         <v>155.6170609594457</v>
@@ -1844,19 +1844,19 @@
         <v>224.1774609749017</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1887779325834</v>
+        <v>212.1887779325835</v>
       </c>
       <c r="D17" t="n">
         <v>203.1700819771114</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9122195470169</v>
+        <v>224.912219547017</v>
       </c>
       <c r="F17" t="n">
         <v>244.0840356349941</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4791054931149</v>
+        <v>245.4791054931141</v>
       </c>
       <c r="H17" t="n">
         <v>158.0555978407189</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.166854647404483</v>
+        <v>7.166854647404518</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83375174131456</v>
+        <v>53.83375174131461</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36778393206441</v>
+        <v>86.36778393206447</v>
       </c>
       <c r="V17" t="n">
         <v>167.6838382150808</v>
@@ -1907,7 +1907,7 @@
         <v>192.9839376930377</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2841959257843</v>
+        <v>212.2841959257844</v>
       </c>
       <c r="Y17" t="n">
         <v>223.6807937219831</v>
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696255</v>
       </c>
       <c r="G18" t="n">
         <v>127.1532536392214</v>
@@ -1941,7 +1941,7 @@
         <v>96.15737859072274</v>
       </c>
       <c r="I18" t="n">
-        <v>57.78400411843697</v>
+        <v>57.78400411843695</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.30756351047182</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S18" t="n">
         <v>145.9227365679431</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79417184959874</v>
+        <v>15.7941718495988</v>
       </c>
       <c r="C19" t="n">
-        <v>1.994166694999222</v>
+        <v>1.994166694999279</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.063490885589286</v>
+        <v>1.063490885589342</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43977996529583</v>
+        <v>197.1701225577495</v>
       </c>
       <c r="T19" t="n">
-        <v>63.89001102470519</v>
+        <v>63.89001102470525</v>
       </c>
       <c r="U19" t="n">
         <v>118.3795257617283</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20230824922433</v>
+        <v>92.20230824922439</v>
       </c>
       <c r="W19" t="n">
         <v>117.3691943198376</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01429631564071</v>
+        <v>63.01429631564076</v>
       </c>
       <c r="Y19" t="n">
-        <v>58.66365823968156</v>
+        <v>53.88916407170845</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>224.1774609749017</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1887779325834</v>
+        <v>212.1887779325835</v>
       </c>
       <c r="D20" t="n">
         <v>203.1700819771114</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9122195470169</v>
+        <v>224.912219547017</v>
       </c>
       <c r="F20" t="n">
         <v>244.0840356349941</v>
       </c>
       <c r="G20" t="n">
-        <v>245.479105493114</v>
+        <v>245.4791054931141</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0555978407189</v>
+        <v>158.0555978407185</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.166854647404969</v>
+        <v>7.166854647404518</v>
       </c>
       <c r="T20" t="n">
-        <v>53.83375174131456</v>
+        <v>53.83375174131461</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36778393206441</v>
+        <v>86.36778393206447</v>
       </c>
       <c r="V20" t="n">
         <v>167.6838382150808</v>
@@ -2144,7 +2144,7 @@
         <v>192.9839376930377</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2841959257843</v>
+        <v>212.2841959257844</v>
       </c>
       <c r="Y20" t="n">
         <v>223.6807937219831</v>
@@ -2178,7 +2178,7 @@
         <v>96.15737859072274</v>
       </c>
       <c r="I21" t="n">
-        <v>57.78400411843697</v>
+        <v>57.78400411843813</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.30756351047147</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S21" t="n">
         <v>145.9227365679431</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79417184959874</v>
+        <v>15.7941718495988</v>
       </c>
       <c r="C22" t="n">
-        <v>6.183335046938109</v>
+        <v>1.994166694999279</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.063490885589286</v>
+        <v>1.063490885589342</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43977996529583</v>
+        <v>197.1701225577495</v>
       </c>
       <c r="T22" t="n">
-        <v>63.89001102470519</v>
+        <v>63.89001102470525</v>
       </c>
       <c r="U22" t="n">
         <v>118.3795257617283</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20230824922433</v>
+        <v>92.20230824922439</v>
       </c>
       <c r="W22" t="n">
         <v>117.3691943198376</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01429631564071</v>
+        <v>63.01429631564076</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88916407170839</v>
+        <v>53.88916407170845</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>224.1774609749017</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1887779325834</v>
+        <v>212.1887779325835</v>
       </c>
       <c r="D23" t="n">
         <v>203.1700819771114</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9122195470169</v>
+        <v>224.912219547017</v>
       </c>
       <c r="F23" t="n">
         <v>244.0840356349941</v>
       </c>
       <c r="G23" t="n">
-        <v>245.479105493114</v>
+        <v>245.4791054931141</v>
       </c>
       <c r="H23" t="n">
         <v>158.0555978407189</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.166854647404483</v>
+        <v>7.166854647404506</v>
       </c>
       <c r="T23" t="n">
-        <v>53.83375174131456</v>
+        <v>53.83375174131461</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36778393206441</v>
+        <v>86.36778393206447</v>
       </c>
       <c r="V23" t="n">
         <v>167.6838382150808</v>
@@ -2381,7 +2381,7 @@
         <v>192.9839376930377</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2841959257843</v>
+        <v>212.2841959257844</v>
       </c>
       <c r="Y23" t="n">
         <v>223.6807937219831</v>
@@ -2415,7 +2415,7 @@
         <v>96.15737859072274</v>
       </c>
       <c r="I24" t="n">
-        <v>57.78400411843769</v>
+        <v>57.78400411843813</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.30756351047147</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S24" t="n">
         <v>145.9227365679431</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79417184959874</v>
+        <v>15.7941718495988</v>
       </c>
       <c r="C25" t="n">
-        <v>1.994166694999222</v>
+        <v>1.994166694999279</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>156.7938334780431</v>
+        <v>1.063490885589342</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43977996529583</v>
+        <v>41.43977996529588</v>
       </c>
       <c r="T25" t="n">
-        <v>63.89001102470519</v>
+        <v>63.89001102470525</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3795257617283</v>
+        <v>274.109868354182</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20230824922433</v>
+        <v>92.20230824922439</v>
       </c>
       <c r="W25" t="n">
         <v>117.3691943198376</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01429631564071</v>
+        <v>63.01429631564076</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88916407170839</v>
+        <v>53.88916407170845</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.4703505509403</v>
       </c>
       <c r="I26" t="n">
-        <v>47.82925645536288</v>
+        <v>47.82925645536287</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58160735762588</v>
+        <v>70.58160735762587</v>
       </c>
       <c r="T26" t="n">
         <v>117.248504451536</v>
@@ -2612,7 +2612,7 @@
         <v>149.7825366422858</v>
       </c>
       <c r="V26" t="n">
-        <v>231.0985909253032</v>
+        <v>231.0985909253022</v>
       </c>
       <c r="W26" t="n">
         <v>256.3986904032591</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.20892455982015</v>
+        <v>79.20892455982013</v>
       </c>
       <c r="C28" t="n">
-        <v>65.40891940522063</v>
+        <v>65.40891940522062</v>
       </c>
       <c r="D28" t="n">
-        <v>49.03028380279902</v>
+        <v>49.030283802799</v>
       </c>
       <c r="E28" t="n">
-        <v>47.97803365857847</v>
+        <v>47.97803365857845</v>
       </c>
       <c r="F28" t="n">
-        <v>48.44495798676478</v>
+        <v>48.44495798676476</v>
       </c>
       <c r="G28" t="n">
-        <v>64.4782435958107</v>
+        <v>64.47824359581068</v>
       </c>
       <c r="H28" t="n">
-        <v>53.12161073233686</v>
+        <v>53.12161073233685</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99005253840734</v>
+        <v>32.99005253840733</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66068188454696</v>
+        <v>34.66068188454695</v>
       </c>
       <c r="S28" t="n">
         <v>104.8545326755172</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58160735762587</v>
+        <v>70.58160735762588</v>
       </c>
       <c r="T29" t="n">
         <v>117.248504451536</v>
@@ -2886,7 +2886,7 @@
         <v>127.1532536392214</v>
       </c>
       <c r="H30" t="n">
-        <v>96.15737859072273</v>
+        <v>96.15737859072274</v>
       </c>
       <c r="I30" t="n">
         <v>57.78400411843695</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.30756351047143</v>
+        <v>41.30756351047144</v>
       </c>
       <c r="S30" t="n">
         <v>145.9227365679431</v>
@@ -2968,7 +2968,7 @@
         <v>53.12161073233688</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99005253840734</v>
+        <v>32.99005253840735</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.592213685123</v>
+        <v>287.5922136851231</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6035306428047</v>
+        <v>275.6035306428048</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5848346873327</v>
+        <v>266.5848346873328</v>
       </c>
       <c r="E32" t="n">
         <v>288.3269722572383</v>
@@ -3047,7 +3047,7 @@
         <v>221.4703505509402</v>
       </c>
       <c r="I32" t="n">
-        <v>47.82925645536278</v>
+        <v>47.82925645536281</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58160735762578</v>
+        <v>70.58160735762581</v>
       </c>
       <c r="T32" t="n">
         <v>117.2485044515359</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7825366422857</v>
+        <v>149.7825366422858</v>
       </c>
       <c r="V32" t="n">
         <v>231.0985909253021</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.20892455982008</v>
+        <v>79.2089245598201</v>
       </c>
       <c r="C34" t="n">
-        <v>65.40891940522056</v>
+        <v>65.40891940522059</v>
       </c>
       <c r="D34" t="n">
-        <v>49.03028380279895</v>
+        <v>49.03028380279898</v>
       </c>
       <c r="E34" t="n">
-        <v>47.9780336585784</v>
+        <v>47.97803365857843</v>
       </c>
       <c r="F34" t="n">
-        <v>48.44495798676471</v>
+        <v>48.44495798676473</v>
       </c>
       <c r="G34" t="n">
-        <v>64.47824359581062</v>
+        <v>64.47824359581065</v>
       </c>
       <c r="H34" t="n">
-        <v>53.12161073233679</v>
+        <v>53.12161073233682</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99005253840726</v>
+        <v>32.99005253840729</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66068188454688</v>
+        <v>34.6606818845469</v>
       </c>
       <c r="S34" t="n">
         <v>104.8545326755172</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3047637349265</v>
+        <v>127.3047637349266</v>
       </c>
       <c r="U34" t="n">
         <v>181.7942784719496</v>
@@ -3247,13 +3247,13 @@
         <v>155.6170609594457</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7839470300589</v>
+        <v>180.783947030059</v>
       </c>
       <c r="X34" t="n">
-        <v>126.429049025862</v>
+        <v>126.4290490258621</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3039167819297</v>
+        <v>117.3039167819298</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>224.1774609749017</v>
       </c>
       <c r="C35" t="n">
-        <v>212.1887779325835</v>
+        <v>212.1887779325834</v>
       </c>
       <c r="D35" t="n">
         <v>203.1700819771114</v>
       </c>
       <c r="E35" t="n">
-        <v>224.912219547017</v>
+        <v>224.9122195470169</v>
       </c>
       <c r="F35" t="n">
         <v>244.0840356349941</v>
       </c>
       <c r="G35" t="n">
-        <v>245.4791054931141</v>
+        <v>245.479105493114</v>
       </c>
       <c r="H35" t="n">
         <v>158.0555978407189</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.166854647404506</v>
+        <v>7.166854647404477</v>
       </c>
       <c r="T35" t="n">
-        <v>53.83375174131461</v>
+        <v>53.83375174131459</v>
       </c>
       <c r="U35" t="n">
-        <v>86.36778393206447</v>
+        <v>86.36778393206444</v>
       </c>
       <c r="V35" t="n">
         <v>167.6838382150808</v>
@@ -3329,7 +3329,7 @@
         <v>192.9839376930377</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2841959257844</v>
+        <v>212.2841959257843</v>
       </c>
       <c r="Y35" t="n">
         <v>223.6807937219831</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.7941718495988</v>
+        <v>15.79417184959877</v>
       </c>
       <c r="C37" t="n">
-        <v>1.994166694999279</v>
+        <v>1.994166694999251</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.063490885589342</v>
+        <v>1.063490885589313</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.1701225577495</v>
+        <v>41.43977996529585</v>
       </c>
       <c r="T37" t="n">
-        <v>63.89001102470525</v>
+        <v>63.89001102470522</v>
       </c>
       <c r="U37" t="n">
-        <v>118.3795257617283</v>
+        <v>274.1098683541823</v>
       </c>
       <c r="V37" t="n">
-        <v>92.20230824922439</v>
+        <v>92.20230824922436</v>
       </c>
       <c r="W37" t="n">
         <v>117.3691943198376</v>
       </c>
       <c r="X37" t="n">
-        <v>63.01429631564076</v>
+        <v>63.01429631564073</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.88916407170845</v>
+        <v>53.88916407170842</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>224.1774609749017</v>
       </c>
       <c r="C38" t="n">
-        <v>212.1887779325835</v>
+        <v>212.1887779325834</v>
       </c>
       <c r="D38" t="n">
         <v>203.1700819771114</v>
       </c>
       <c r="E38" t="n">
-        <v>224.912219547017</v>
+        <v>224.9122195470169</v>
       </c>
       <c r="F38" t="n">
         <v>244.0840356349941</v>
       </c>
       <c r="G38" t="n">
-        <v>245.4791054931141</v>
+        <v>245.479105493114</v>
       </c>
       <c r="H38" t="n">
         <v>158.0555978407189</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7.166854647404518</v>
+        <v>7.166854647404477</v>
       </c>
       <c r="T38" t="n">
-        <v>53.83375174131461</v>
+        <v>53.83375174131459</v>
       </c>
       <c r="U38" t="n">
-        <v>86.36778393206447</v>
+        <v>86.36778393206444</v>
       </c>
       <c r="V38" t="n">
         <v>167.6838382150808</v>
@@ -3566,7 +3566,7 @@
         <v>192.9839376930377</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2841959257844</v>
+        <v>212.2841959257843</v>
       </c>
       <c r="Y38" t="n">
         <v>223.6807937219831</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.7941718495988</v>
+        <v>171.5245144420526</v>
       </c>
       <c r="C40" t="n">
-        <v>1.994166694999279</v>
+        <v>1.994166694999251</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.304909381748609</v>
+        <v>1.063490885589313</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.43977996529588</v>
+        <v>41.43977996529585</v>
       </c>
       <c r="T40" t="n">
-        <v>63.89001102470525</v>
+        <v>63.89001102470522</v>
       </c>
       <c r="U40" t="n">
         <v>118.3795257617283</v>
       </c>
       <c r="V40" t="n">
-        <v>92.20230824922439</v>
+        <v>92.20230824922436</v>
       </c>
       <c r="W40" t="n">
         <v>117.3691943198376</v>
       </c>
       <c r="X40" t="n">
-        <v>63.01429631564076</v>
+        <v>63.01429631564073</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.88916407170845</v>
+        <v>53.88916407170842</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.200290658473</v>
+        <v>245.2002906584729</v>
       </c>
       <c r="C41" t="n">
-        <v>233.2116076161548</v>
+        <v>233.2116076161546</v>
       </c>
       <c r="D41" t="n">
-        <v>224.1929116606827</v>
+        <v>224.1929116606826</v>
       </c>
       <c r="E41" t="n">
-        <v>245.9350492305883</v>
+        <v>218.1173688372776</v>
       </c>
       <c r="F41" t="n">
-        <v>265.1068653185654</v>
+        <v>265.1068653185653</v>
       </c>
       <c r="G41" t="n">
-        <v>266.5019351766854</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>179.0784275242902</v>
+        <v>179.07842752429</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>28.18968433097565</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>74.85658142488575</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.3906136156356</v>
       </c>
       <c r="V41" t="n">
-        <v>188.7066678986521</v>
+        <v>188.706667898652</v>
       </c>
       <c r="W41" t="n">
-        <v>130.1240311781086</v>
+        <v>214.0067673766089</v>
       </c>
       <c r="X41" t="n">
-        <v>233.3070256093557</v>
+        <v>233.3070256093555</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.7036234055544</v>
+        <v>244.7036234055543</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.8170015331701</v>
+        <v>36.81700153316993</v>
       </c>
       <c r="C43" t="n">
-        <v>23.01699637857058</v>
+        <v>23.01699637857041</v>
       </c>
       <c r="D43" t="n">
-        <v>6.638360776148971</v>
+        <v>6.638360776148801</v>
       </c>
       <c r="E43" t="n">
-        <v>5.58611063192842</v>
+        <v>5.58611063192825</v>
       </c>
       <c r="F43" t="n">
-        <v>6.053034960114729</v>
+        <v>6.053034960114559</v>
       </c>
       <c r="G43" t="n">
-        <v>22.08632056916064</v>
+        <v>22.08632056916047</v>
       </c>
       <c r="H43" t="n">
-        <v>10.72968770568681</v>
+        <v>10.72968770568664</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>62.46260964886718</v>
+        <v>62.46260964886701</v>
       </c>
       <c r="T43" t="n">
-        <v>84.91284070827655</v>
+        <v>84.91284070827638</v>
       </c>
       <c r="U43" t="n">
-        <v>139.4023554452996</v>
+        <v>139.4023554452995</v>
       </c>
       <c r="V43" t="n">
-        <v>113.2251379327957</v>
+        <v>113.2251379327955</v>
       </c>
       <c r="W43" t="n">
-        <v>138.3920240034089</v>
+        <v>138.3920240034088</v>
       </c>
       <c r="X43" t="n">
-        <v>84.03712599921207</v>
+        <v>84.0371259992119</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.91199375527975</v>
+        <v>74.91199375527958</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>245.200290658473</v>
+        <v>245.2002906584728</v>
       </c>
       <c r="C44" t="n">
-        <v>233.2116076161548</v>
+        <v>233.2116076161546</v>
       </c>
       <c r="D44" t="n">
-        <v>224.1929116606827</v>
+        <v>224.1929116606825</v>
       </c>
       <c r="E44" t="n">
-        <v>245.9350492305883</v>
+        <v>245.9350492305881</v>
       </c>
       <c r="F44" t="n">
-        <v>265.1068653185654</v>
+        <v>265.1068653185653</v>
       </c>
       <c r="G44" t="n">
-        <v>266.5019351766854</v>
+        <v>266.5019351766852</v>
       </c>
       <c r="H44" t="n">
-        <v>179.0784275242902</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.18968433097582</v>
+        <v>28.18968433097562</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>74.85658142488572</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>107.3906136156356</v>
       </c>
       <c r="V44" t="n">
-        <v>76.63424736917629</v>
+        <v>188.7066678986519</v>
       </c>
       <c r="W44" t="n">
-        <v>214.006767376609</v>
+        <v>214.0067673766088</v>
       </c>
       <c r="X44" t="n">
-        <v>233.3070256093557</v>
+        <v>233.3070256093555</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.7036234055544</v>
+        <v>129.4624353598483</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.8170015331701</v>
+        <v>36.8170015331699</v>
       </c>
       <c r="C46" t="n">
-        <v>23.01699637857058</v>
+        <v>23.01699637857038</v>
       </c>
       <c r="D46" t="n">
-        <v>6.638360776148971</v>
+        <v>6.638360776148772</v>
       </c>
       <c r="E46" t="n">
-        <v>5.58611063192842</v>
+        <v>5.586110631928221</v>
       </c>
       <c r="F46" t="n">
-        <v>6.053034960114729</v>
+        <v>6.05303496011453</v>
       </c>
       <c r="G46" t="n">
-        <v>22.08632056916064</v>
+        <v>22.08632056916045</v>
       </c>
       <c r="H46" t="n">
-        <v>10.72968770568681</v>
+        <v>10.72968770568662</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>62.46260964886718</v>
+        <v>62.46260964886698</v>
       </c>
       <c r="T46" t="n">
-        <v>84.91284070827655</v>
+        <v>84.91284070827635</v>
       </c>
       <c r="U46" t="n">
-        <v>139.4023554452996</v>
+        <v>139.4023554452994</v>
       </c>
       <c r="V46" t="n">
-        <v>113.2251379327957</v>
+        <v>113.2251379327955</v>
       </c>
       <c r="W46" t="n">
-        <v>138.3920240034089</v>
+        <v>138.3920240034087</v>
       </c>
       <c r="X46" t="n">
-        <v>84.03712599921207</v>
+        <v>84.03712599921187</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.91199375527975</v>
+        <v>74.91199375527955</v>
       </c>
     </row>
   </sheetData>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1269.226377729244</v>
+        <v>930.8617544072312</v>
       </c>
       <c r="C11" t="n">
-        <v>990.8389730395422</v>
+        <v>652.4743497175293</v>
       </c>
       <c r="D11" t="n">
-        <v>721.5613622442565</v>
+        <v>652.4743497175293</v>
       </c>
       <c r="E11" t="n">
-        <v>721.5613622442565</v>
+        <v>361.2349838011269</v>
       </c>
       <c r="F11" t="n">
-        <v>410.9565255319177</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="G11" t="n">
-        <v>98.9425273467304</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="H11" t="n">
-        <v>98.9425273467304</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="I11" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J11" t="n">
-        <v>131.8683661978419</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K11" t="n">
-        <v>439.7849389961424</v>
+        <v>475.7673611397702</v>
       </c>
       <c r="L11" t="n">
-        <v>871.75268229746</v>
+        <v>907.735104441088</v>
       </c>
       <c r="M11" t="n">
-        <v>1358.549686354552</v>
+        <v>1394.53210849818</v>
       </c>
       <c r="N11" t="n">
-        <v>1831.952746473649</v>
+        <v>1867.935168617277</v>
       </c>
       <c r="O11" t="n">
-        <v>2226.730842692082</v>
+        <v>2262.713264835711</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.507354439404</v>
+        <v>2379.536960571298</v>
       </c>
       <c r="Q11" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R11" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="S11" t="n">
         <v>2460.212801552914</v>
@@ -5075,16 +5075,16 @@
         <v>2190.48447721572</v>
       </c>
       <c r="V11" t="n">
-        <v>1957.051557089152</v>
+        <v>2048.826804060355</v>
       </c>
       <c r="W11" t="n">
-        <v>1838.207349770788</v>
+        <v>1789.838227895447</v>
       </c>
       <c r="X11" t="n">
-        <v>1559.723563269773</v>
+        <v>1511.354441394431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1559.723563269773</v>
+        <v>1221.35893994776</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8282409603523</v>
+        <v>916.8282409603524</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1245682013071</v>
+        <v>755.1245682013073</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2859311915191</v>
+        <v>616.2859311915192</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2579212483903</v>
+        <v>469.2579212483904</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5641231982647</v>
+        <v>334.5641231982648</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1264932596572</v>
+        <v>206.1264932596573</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9978280165029</v>
+        <v>108.9978280165022</v>
       </c>
       <c r="I12" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J12" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="K12" t="n">
-        <v>326.1551463392341</v>
+        <v>326.1551463392342</v>
       </c>
       <c r="L12" t="n">
-        <v>753.8759860879736</v>
+        <v>753.8759860879738</v>
       </c>
       <c r="M12" t="n">
-        <v>1311.142546684496</v>
+        <v>1311.142546684497</v>
       </c>
       <c r="N12" t="n">
         <v>1520.783122484337</v>
@@ -5139,7 +5139,7 @@
         <v>2337.345292612274</v>
       </c>
       <c r="Q12" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R12" t="n">
         <v>2489.782542812666</v>
@@ -5154,7 +5154,7 @@
         <v>1936.397489532596</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.001866980929</v>
+        <v>1708.00186698093</v>
       </c>
       <c r="W12" t="n">
         <v>1466.68599821424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.7332801392103</v>
+        <v>415.7332801392101</v>
       </c>
       <c r="C13" t="n">
-        <v>349.6636645783813</v>
+        <v>349.6636645783812</v>
       </c>
       <c r="D13" t="n">
-        <v>300.1381253836348</v>
+        <v>300.1381253836347</v>
       </c>
       <c r="E13" t="n">
-        <v>251.6754651224444</v>
+        <v>251.6754651224443</v>
       </c>
       <c r="F13" t="n">
-        <v>202.7411641257123</v>
+        <v>202.7411641257122</v>
       </c>
       <c r="G13" t="n">
-        <v>137.6116251400449</v>
+        <v>137.6116251400448</v>
       </c>
       <c r="H13" t="n">
         <v>83.95343248111874</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J13" t="n">
         <v>110.1513370255059</v>
       </c>
       <c r="K13" t="n">
-        <v>273.0091025604549</v>
+        <v>273.009102560455</v>
       </c>
       <c r="L13" t="n">
-        <v>510.6351825853237</v>
+        <v>510.6351825853238</v>
       </c>
       <c r="M13" t="n">
-        <v>767.5792676530623</v>
+        <v>767.5792676530625</v>
       </c>
       <c r="N13" t="n">
         <v>1024.061359198406</v>
@@ -5239,10 +5239,10 @@
         <v>741.9372098034648</v>
       </c>
       <c r="X13" t="n">
-        <v>614.2310996763315</v>
+        <v>614.2310996763314</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.7422948460993</v>
+        <v>495.7422948460992</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.89555764929</v>
+        <v>1129.583692976557</v>
       </c>
       <c r="C14" t="n">
-        <v>1236.508152959588</v>
+        <v>851.196288286855</v>
       </c>
       <c r="D14" t="n">
-        <v>1236.508152959588</v>
+        <v>584.9424086000565</v>
       </c>
       <c r="E14" t="n">
-        <v>945.268787043186</v>
+        <v>584.9424086000565</v>
       </c>
       <c r="F14" t="n">
-        <v>634.6639503308471</v>
+        <v>274.3375718877176</v>
       </c>
       <c r="G14" t="n">
-        <v>322.6499521456598</v>
+        <v>274.3375718877176</v>
       </c>
       <c r="H14" t="n">
-        <v>98.94252734673039</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J14" t="n">
-        <v>167.8507883414695</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K14" t="n">
-        <v>475.7673611397699</v>
+        <v>475.7673611397702</v>
       </c>
       <c r="L14" t="n">
-        <v>907.7351044410875</v>
+        <v>907.735104441088</v>
       </c>
       <c r="M14" t="n">
-        <v>1206.579292486445</v>
+        <v>1358.549686354552</v>
       </c>
       <c r="N14" t="n">
-        <v>1679.982352605542</v>
+        <v>1831.952746473649</v>
       </c>
       <c r="O14" t="n">
-        <v>2074.760448823975</v>
+        <v>2226.730842692082</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.536960571297</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="S14" t="n">
-        <v>2492.304863916835</v>
+        <v>2460.212801552914</v>
       </c>
       <c r="T14" t="n">
-        <v>2373.872031137506</v>
+        <v>2341.779968773585</v>
       </c>
       <c r="U14" t="n">
-        <v>2373.872031137506</v>
+        <v>2190.48447721572</v>
       </c>
       <c r="V14" t="n">
-        <v>2373.872031137506</v>
+        <v>1957.051557089152</v>
       </c>
       <c r="W14" t="n">
-        <v>2373.872031137506</v>
+        <v>1698.062980924244</v>
       </c>
       <c r="X14" t="n">
-        <v>2095.38824463649</v>
+        <v>1419.579194423228</v>
       </c>
       <c r="Y14" t="n">
-        <v>1805.392743189819</v>
+        <v>1129.583692976557</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.8282409603518</v>
+        <v>916.8282409603528</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1245682013065</v>
+        <v>755.1245682013075</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2859311915186</v>
+        <v>616.2859311915196</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2579212483897</v>
+        <v>469.2579212483908</v>
       </c>
       <c r="F15" t="n">
-        <v>334.564123198264</v>
+        <v>334.5641231982652</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1264932596565</v>
+        <v>206.1264932596577</v>
       </c>
       <c r="H15" t="n">
         <v>108.9978280165022</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J15" t="n">
-        <v>102.5809113729916</v>
+        <v>137.8182647807295</v>
       </c>
       <c r="K15" t="n">
-        <v>378.1059106234377</v>
+        <v>413.3432640311756</v>
       </c>
       <c r="L15" t="n">
-        <v>378.1059106234377</v>
+        <v>841.0641037799152</v>
       </c>
       <c r="M15" t="n">
-        <v>935.3724712199603</v>
+        <v>1129.534533047091</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.783122484337</v>
+        <v>1714.945184311468</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.811267570207</v>
+        <v>2174.973329397338</v>
       </c>
       <c r="P15" t="n">
-        <v>2337.345292612274</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R15" t="n">
         <v>2489.782542812666</v>
@@ -5391,16 +5391,16 @@
         <v>1936.397489532596</v>
       </c>
       <c r="V15" t="n">
-        <v>1708.001866980929</v>
+        <v>1708.00186698093</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.685998214239</v>
+        <v>1466.68599821424</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.769010092034</v>
+        <v>1268.769010092035</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.247683741613</v>
+        <v>1076.247683741614</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.7332801392104</v>
+        <v>415.7332801392102</v>
       </c>
       <c r="C16" t="n">
-        <v>349.6636645783815</v>
+        <v>349.6636645783813</v>
       </c>
       <c r="D16" t="n">
-        <v>300.138125383635</v>
+        <v>300.1381253836348</v>
       </c>
       <c r="E16" t="n">
-        <v>251.6754651224447</v>
+        <v>251.6754651224444</v>
       </c>
       <c r="F16" t="n">
-        <v>202.7411641257127</v>
+        <v>202.7411641257123</v>
       </c>
       <c r="G16" t="n">
-        <v>137.6116251400448</v>
+        <v>137.6116251400449</v>
       </c>
       <c r="H16" t="n">
-        <v>83.9534324811187</v>
+        <v>83.95343248111874</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J16" t="n">
-        <v>110.1513370255059</v>
+        <v>110.1513370255061</v>
       </c>
       <c r="K16" t="n">
-        <v>273.0091025604549</v>
+        <v>273.0091025604552</v>
       </c>
       <c r="L16" t="n">
-        <v>510.6351825853237</v>
+        <v>510.6351825853239</v>
       </c>
       <c r="M16" t="n">
-        <v>767.5792676530624</v>
+        <v>767.5792676530627</v>
       </c>
       <c r="N16" t="n">
         <v>1024.061359198406</v>
       </c>
       <c r="O16" t="n">
-        <v>1257.792766586066</v>
+        <v>1257.792766586067</v>
       </c>
       <c r="P16" t="n">
         <v>1451.153351206126</v>
       </c>
       <c r="Q16" t="n">
-        <v>1534.881921678662</v>
+        <v>1534.881921678663</v>
       </c>
       <c r="R16" t="n">
-        <v>1499.871131896291</v>
+        <v>1499.871131896292</v>
       </c>
       <c r="S16" t="n">
         <v>1393.957462527082</v>
       </c>
       <c r="T16" t="n">
-        <v>1265.366792087762</v>
+        <v>1265.366792087763</v>
       </c>
       <c r="U16" t="n">
         <v>1081.736207772662</v>
       </c>
       <c r="V16" t="n">
-        <v>924.547257308575</v>
+        <v>924.5472573085749</v>
       </c>
       <c r="W16" t="n">
-        <v>741.937209803465</v>
+        <v>741.9372098034648</v>
       </c>
       <c r="X16" t="n">
-        <v>614.2310996763315</v>
+        <v>614.2310996763314</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7422948460994</v>
+        <v>495.7422948460992</v>
       </c>
     </row>
     <row r="17">
@@ -5495,70 +5495,70 @@
         <v>1137.196854657431</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9745496300454</v>
+        <v>931.9745496300453</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7904894815435</v>
+        <v>704.7904894815433</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2409585371051</v>
+        <v>458.2409585371047</v>
       </c>
       <c r="G17" t="n">
         <v>210.2822661198173</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J17" t="n">
-        <v>131.8683661978421</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K17" t="n">
-        <v>439.7849389961426</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L17" t="n">
-        <v>871.7526822974601</v>
+        <v>907.7351044410877</v>
       </c>
       <c r="M17" t="n">
-        <v>1358.549686354552</v>
+        <v>1394.53210849818</v>
       </c>
       <c r="N17" t="n">
-        <v>1831.952746473649</v>
+        <v>1867.935168617277</v>
       </c>
       <c r="O17" t="n">
-        <v>2226.730842692082</v>
+        <v>2262.713264835711</v>
       </c>
       <c r="P17" t="n">
-        <v>2531.507354439404</v>
+        <v>2379.536960571298</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.268107320814</v>
+        <v>2524.268107320815</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.890580309385</v>
+        <v>2469.890580309386</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.650394519421</v>
+        <v>2382.650394519422</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.272780160753</v>
+        <v>2213.272780160754</v>
       </c>
       <c r="W17" t="n">
         <v>2018.339509763746</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.91102903063</v>
+        <v>1803.911029030631</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.970833351859</v>
+        <v>1577.97083335186</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8282409603518</v>
+        <v>916.8282409603528</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1245682013065</v>
+        <v>755.1245682013075</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2859311915186</v>
+        <v>616.2859311915196</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2579212483897</v>
+        <v>469.2579212483908</v>
       </c>
       <c r="F18" t="n">
         <v>334.564123198264</v>
@@ -5589,19 +5589,19 @@
         <v>108.9978280165022</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J18" t="n">
         <v>137.8182647807294</v>
       </c>
       <c r="K18" t="n">
-        <v>413.3432640311755</v>
+        <v>137.8182647807294</v>
       </c>
       <c r="L18" t="n">
-        <v>841.0641037799148</v>
+        <v>565.5391045294689</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.330664376437</v>
+        <v>1122.805665125992</v>
       </c>
       <c r="N18" t="n">
         <v>1520.783122484337</v>
@@ -5613,31 +5613,31 @@
         <v>2337.345292612274</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.782542812665</v>
+        <v>2489.782542812666</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.385839208682</v>
+        <v>2342.385839208683</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.873145747567</v>
+        <v>2154.873145747568</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.397489532595</v>
+        <v>1936.397489532596</v>
       </c>
       <c r="V18" t="n">
-        <v>1708.001866980929</v>
+        <v>1708.00186698093</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.685998214239</v>
+        <v>1466.68599821424</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.769010092034</v>
+        <v>1268.769010092035</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.247683741613</v>
+        <v>1076.247683741614</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.1993450737064</v>
+        <v>53.71869009948367</v>
       </c>
       <c r="C19" t="n">
-        <v>204.1850352807779</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="D19" t="n">
-        <v>204.1850352807779</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="E19" t="n">
-        <v>204.1850352807779</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70438030655504</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="K19" t="n">
-        <v>112.0021310903984</v>
+        <v>112.0021310903985</v>
       </c>
       <c r="L19" t="n">
-        <v>248.1424295819284</v>
+        <v>248.1424295819285</v>
       </c>
       <c r="M19" t="n">
-        <v>403.6007331163283</v>
+        <v>403.6007331163285</v>
       </c>
       <c r="N19" t="n">
-        <v>558.5970431283328</v>
+        <v>558.597043128333</v>
       </c>
       <c r="O19" t="n">
-        <v>690.8426689826548</v>
+        <v>690.8426689826551</v>
       </c>
       <c r="P19" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="R19" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="S19" t="n">
-        <v>740.8591084680664</v>
+        <v>583.555732112053</v>
       </c>
       <c r="T19" t="n">
-        <v>676.323743796647</v>
+        <v>519.0203674406335</v>
       </c>
       <c r="U19" t="n">
-        <v>556.7484652494468</v>
+        <v>399.4450888934332</v>
       </c>
       <c r="V19" t="n">
-        <v>463.6148205532606</v>
+        <v>306.3114441972469</v>
       </c>
       <c r="W19" t="n">
-        <v>345.0600788160509</v>
+        <v>187.7567024600372</v>
       </c>
       <c r="X19" t="n">
-        <v>281.4092744568179</v>
+        <v>124.1058981008041</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.1530540126951</v>
+        <v>69.67239903847236</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>1351.528953579231</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.196854657429</v>
+        <v>1137.19685465743</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9745496300441</v>
+        <v>931.9745496300443</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7904894815422</v>
+        <v>704.7904894815423</v>
       </c>
       <c r="F20" t="n">
         <v>458.2409585371038</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2822661198173</v>
+        <v>210.2822661198169</v>
       </c>
       <c r="H20" t="n">
         <v>50.6301470887881</v>
@@ -5750,22 +5750,22 @@
         <v>50.6301470887881</v>
       </c>
       <c r="J20" t="n">
-        <v>50.6301470887881</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K20" t="n">
-        <v>358.5467198870885</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L20" t="n">
-        <v>790.514463188406</v>
+        <v>907.7351044410877</v>
       </c>
       <c r="M20" t="n">
-        <v>1277.311467245498</v>
+        <v>1394.53210849818</v>
       </c>
       <c r="N20" t="n">
-        <v>1750.714527364595</v>
+        <v>1679.982352605542</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.492623583028</v>
+        <v>2074.760448823975</v>
       </c>
       <c r="P20" t="n">
         <v>2379.536960571298</v>
@@ -5777,19 +5777,19 @@
         <v>2531.507354439405</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.268107320813</v>
+        <v>2524.268107320814</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.890580309384</v>
+        <v>2469.890580309385</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.65039451942</v>
+        <v>2382.650394519421</v>
       </c>
       <c r="V20" t="n">
         <v>2213.272780160753</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.339509763745</v>
+        <v>2018.339509763746</v>
       </c>
       <c r="X20" t="n">
         <v>1803.91102903063</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8282409603515</v>
+        <v>916.8282409603528</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1245682013064</v>
+        <v>755.1245682013075</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2859311915183</v>
+        <v>616.2859311915196</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2579212483895</v>
+        <v>469.2579212483908</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5641231982639</v>
+        <v>334.5641231982652</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1264932596565</v>
+        <v>206.1264932596577</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9978280165022</v>
+        <v>108.9978280165034</v>
       </c>
       <c r="I21" t="n">
         <v>50.6301470887881</v>
@@ -5835,13 +5835,13 @@
         <v>413.3432640311755</v>
       </c>
       <c r="L21" t="n">
-        <v>841.0641037799148</v>
+        <v>841.0641037799151</v>
       </c>
       <c r="M21" t="n">
-        <v>1395.400616305831</v>
+        <v>935.3724712199603</v>
       </c>
       <c r="N21" t="n">
-        <v>1980.811267570207</v>
+        <v>1520.783122484337</v>
       </c>
       <c r="O21" t="n">
         <v>1980.811267570207</v>
@@ -5853,28 +5853,28 @@
         <v>2531.507354439405</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.782542812665</v>
+        <v>2489.782542812666</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.385839208682</v>
+        <v>2342.385839208683</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.873145747567</v>
+        <v>2154.873145747568</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.397489532595</v>
+        <v>1936.397489532596</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.001866980929</v>
+        <v>1708.00186698093</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.685998214239</v>
+        <v>1466.68599821424</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.769010092034</v>
+        <v>1268.769010092035</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.247683741612</v>
+        <v>1076.247683741614</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.0220664554975</v>
+        <v>53.71869009948367</v>
       </c>
       <c r="C22" t="n">
-        <v>204.7762734787923</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70438030655505</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70438030655505</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70438030655505</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="G22" t="n">
         <v>50.6301470887881</v>
@@ -5911,49 +5911,49 @@
         <v>50.6301470887881</v>
       </c>
       <c r="K22" t="n">
-        <v>112.0021310903984</v>
+        <v>112.0021310903985</v>
       </c>
       <c r="L22" t="n">
-        <v>248.1424295819284</v>
+        <v>248.1424295819285</v>
       </c>
       <c r="M22" t="n">
-        <v>403.6007331163283</v>
+        <v>403.6007331163285</v>
       </c>
       <c r="N22" t="n">
-        <v>558.5970431283328</v>
+        <v>558.597043128333</v>
       </c>
       <c r="O22" t="n">
-        <v>690.8426689826548</v>
+        <v>690.8426689826551</v>
       </c>
       <c r="P22" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="R22" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="S22" t="n">
-        <v>740.8591084680664</v>
+        <v>583.555732112053</v>
       </c>
       <c r="T22" t="n">
-        <v>676.323743796647</v>
+        <v>519.0203674406335</v>
       </c>
       <c r="U22" t="n">
-        <v>556.7484652494468</v>
+        <v>399.4450888934332</v>
       </c>
       <c r="V22" t="n">
-        <v>463.6148205532606</v>
+        <v>306.3114441972469</v>
       </c>
       <c r="W22" t="n">
-        <v>345.0600788160509</v>
+        <v>187.7567024600372</v>
       </c>
       <c r="X22" t="n">
-        <v>281.4092744568179</v>
+        <v>124.1058981008041</v>
       </c>
       <c r="Y22" t="n">
-        <v>226.9757753944861</v>
+        <v>69.67239903847236</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.528953579231</v>
+        <v>1351.528953579232</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.19685465743</v>
+        <v>1137.196854657431</v>
       </c>
       <c r="D23" t="n">
-        <v>931.974549630045</v>
+        <v>931.9745496300452</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7904894815435</v>
+        <v>704.7904894815432</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2409585371051</v>
+        <v>458.2409585371047</v>
       </c>
       <c r="G23" t="n">
         <v>210.2822661198173</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63014708878809</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K23" t="n">
-        <v>358.5467198870885</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L23" t="n">
-        <v>790.514463188406</v>
+        <v>719.7822884293521</v>
       </c>
       <c r="M23" t="n">
-        <v>1277.311467245498</v>
+        <v>1206.579292486445</v>
       </c>
       <c r="N23" t="n">
-        <v>1750.714527364595</v>
+        <v>1679.982352605542</v>
       </c>
       <c r="O23" t="n">
-        <v>2145.492623583028</v>
+        <v>2074.760448823975</v>
       </c>
       <c r="P23" t="n">
-        <v>2450.26913533035</v>
+        <v>2379.536960571298</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.268107320814</v>
+        <v>2524.268107320815</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.890580309385</v>
+        <v>2469.890580309386</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.650394519421</v>
+        <v>2382.650394519422</v>
       </c>
       <c r="V23" t="n">
         <v>2213.272780160754</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.339509763746</v>
+        <v>2018.339509763747</v>
       </c>
       <c r="X23" t="n">
         <v>1803.911029030631</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.970833351859</v>
+        <v>1577.97083335186</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8282409603523</v>
+        <v>916.8282409603528</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1245682013071</v>
+        <v>755.1245682013075</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2859311915191</v>
+        <v>616.2859311915196</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2579212483903</v>
+        <v>469.2579212483908</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5641231982647</v>
+        <v>334.5641231982652</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1264932596572</v>
+        <v>206.1264932596577</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9978280165029</v>
+        <v>108.9978280165034</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8182647807294</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="K24" t="n">
-        <v>413.3432640311755</v>
+        <v>326.1551463392342</v>
       </c>
       <c r="L24" t="n">
-        <v>841.0641037799148</v>
+        <v>753.8759860879736</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.330664376437</v>
+        <v>1311.142546684496</v>
       </c>
       <c r="N24" t="n">
-        <v>1983.741315640814</v>
+        <v>1520.783122484337</v>
       </c>
       <c r="O24" t="n">
-        <v>2443.769460726684</v>
+        <v>1980.811267570207</v>
       </c>
       <c r="P24" t="n">
-        <v>2531.507354439404</v>
+        <v>2337.345292612274</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.507354439404</v>
+        <v>2531.507354439405</v>
       </c>
       <c r="R24" t="n">
         <v>2489.782542812666</v>
@@ -6102,16 +6102,16 @@
         <v>1936.397489532596</v>
       </c>
       <c r="V24" t="n">
-        <v>1708.001866980929</v>
+        <v>1708.00186698093</v>
       </c>
       <c r="W24" t="n">
         <v>1466.68599821424</v>
       </c>
       <c r="X24" t="n">
-        <v>1268.769010092034</v>
+        <v>1268.769010092035</v>
       </c>
       <c r="Y24" t="n">
-        <v>1076.247683741613</v>
+        <v>1076.247683741614</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.0220664554975</v>
+        <v>53.71869009948367</v>
       </c>
       <c r="C25" t="n">
-        <v>209.007756662569</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="D25" t="n">
-        <v>209.007756662569</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="E25" t="n">
-        <v>209.007756662569</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="F25" t="n">
-        <v>209.007756662569</v>
+        <v>51.70438030655511</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63014708878809</v>
+        <v>50.6301470887881</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0021310903984</v>
+        <v>112.0021310903985</v>
       </c>
       <c r="L25" t="n">
-        <v>248.1424295819284</v>
+        <v>248.1424295819285</v>
       </c>
       <c r="M25" t="n">
-        <v>403.6007331163283</v>
+        <v>403.6007331163285</v>
       </c>
       <c r="N25" t="n">
-        <v>558.5970431283328</v>
+        <v>558.597043128333</v>
       </c>
       <c r="O25" t="n">
-        <v>690.8426689826548</v>
+        <v>690.8426689826551</v>
       </c>
       <c r="P25" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="R25" t="n">
-        <v>782.7174720693754</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="S25" t="n">
-        <v>740.8591084680664</v>
+        <v>740.8591084680668</v>
       </c>
       <c r="T25" t="n">
-        <v>676.323743796647</v>
+        <v>676.3237437966474</v>
       </c>
       <c r="U25" t="n">
-        <v>556.7484652494468</v>
+        <v>399.4450888934332</v>
       </c>
       <c r="V25" t="n">
-        <v>463.6148205532606</v>
+        <v>306.3114441972469</v>
       </c>
       <c r="W25" t="n">
-        <v>345.0600788160509</v>
+        <v>187.7567024600372</v>
       </c>
       <c r="X25" t="n">
-        <v>281.4092744568179</v>
+        <v>124.1058981008041</v>
       </c>
       <c r="Y25" t="n">
-        <v>226.9757753944861</v>
+        <v>69.67239903847236</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6206,67 @@
         <v>1525.0732466326</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.795635837314</v>
+        <v>1255.795635837315</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5562699209116</v>
+        <v>964.5562699209123</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9514332085728</v>
+        <v>653.9514332085735</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9374350233854</v>
+        <v>341.9374350233861</v>
       </c>
       <c r="H26" t="n">
         <v>118.2300102244559</v>
       </c>
       <c r="I26" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J26" t="n">
         <v>288.6240527525338</v>
       </c>
       <c r="K26" t="n">
-        <v>698.0264070841729</v>
+        <v>698.0264070841731</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.479931918829</v>
+        <v>1231.47993191883</v>
       </c>
       <c r="M26" t="n">
-        <v>1819.76271750926</v>
+        <v>1819.762717509261</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.778448200695</v>
+        <v>2394.651559161696</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.042325952467</v>
+        <v>2890.915436913468</v>
       </c>
       <c r="P26" t="n">
         <v>3196.304619233129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.760794634575</v>
+        <v>3449.760794634576</v>
       </c>
       <c r="R26" t="n">
         <v>3495.881498325678</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.586945439186</v>
+        <v>3424.586945439187</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.154112659857</v>
+        <v>3306.154112659858</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.858621101993</v>
+        <v>3154.858621101994</v>
       </c>
       <c r="V26" t="n">
         <v>2921.425700975426</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.437124810517</v>
+        <v>2662.437124810518</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.953338309501</v>
+        <v>2383.953338309502</v>
       </c>
       <c r="Y26" t="n">
         <v>2093.95783686283</v>
@@ -6300,7 +6300,7 @@
         <v>128.2853108942277</v>
       </c>
       <c r="I27" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J27" t="n">
         <v>157.1057476584549</v>
@@ -6309,19 +6309,19 @@
         <v>432.630746908901</v>
       </c>
       <c r="L27" t="n">
-        <v>860.3515866576404</v>
+        <v>591.5554553282931</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.618147254163</v>
+        <v>1148.822015924816</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.070605362062</v>
+        <v>1734.232667189193</v>
       </c>
       <c r="O27" t="n">
-        <v>2000.098750447932</v>
+        <v>2194.260812275063</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.632775489998</v>
+        <v>2550.794837317129</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.794837317129</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0207630169359</v>
+        <v>435.0207630169355</v>
       </c>
       <c r="C28" t="n">
-        <v>368.9511474561069</v>
+        <v>368.9511474561066</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4256082613604</v>
+        <v>319.4256082613601</v>
       </c>
       <c r="E28" t="n">
-        <v>270.9629480001701</v>
+        <v>270.9629480001698</v>
       </c>
       <c r="F28" t="n">
-        <v>222.028647003438</v>
+        <v>222.0286470034377</v>
       </c>
       <c r="G28" t="n">
-        <v>156.8991080177706</v>
+        <v>156.8991080177703</v>
       </c>
       <c r="H28" t="n">
         <v>103.2409153588442</v>
       </c>
       <c r="I28" t="n">
-        <v>69.91762996651356</v>
+        <v>69.91762996651357</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4388199032311</v>
+        <v>129.4388199032313</v>
       </c>
       <c r="K28" t="n">
-        <v>292.2965854381802</v>
+        <v>292.2965854381807</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9226654630492</v>
+        <v>529.9226654630495</v>
       </c>
       <c r="M28" t="n">
-        <v>786.8667505307877</v>
+        <v>786.8667505307882</v>
       </c>
       <c r="N28" t="n">
         <v>1043.348842076131</v>
@@ -6403,13 +6403,13 @@
         <v>1470.440834083851</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.169404556387</v>
+        <v>1554.169404556388</v>
       </c>
       <c r="R28" t="n">
         <v>1519.158614774017</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.244945404807</v>
+        <v>1413.244945404808</v>
       </c>
       <c r="T28" t="n">
         <v>1284.654274965488</v>
@@ -6427,7 +6427,7 @@
         <v>633.518582554057</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.029777723825</v>
+        <v>515.0297777238245</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.460651322301</v>
+        <v>1803.460651322303</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.073246632599</v>
+        <v>1525.073246632601</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.795635837314</v>
+        <v>1255.795635837315</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5562699209111</v>
+        <v>964.5562699209124</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9514332085721</v>
+        <v>653.9514332085735</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9374350233848</v>
+        <v>341.9374350233861</v>
       </c>
       <c r="H29" t="n">
         <v>118.2300102244559</v>
@@ -6461,22 +6461,22 @@
         <v>69.91762996651356</v>
       </c>
       <c r="J29" t="n">
-        <v>187.7509417915329</v>
+        <v>288.6240527525338</v>
       </c>
       <c r="K29" t="n">
-        <v>597.1532961231721</v>
+        <v>698.0264070841731</v>
       </c>
       <c r="L29" t="n">
-        <v>1130.606820957829</v>
+        <v>1231.47993191883</v>
       </c>
       <c r="M29" t="n">
         <v>1718.88960654826</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.778448200695</v>
+        <v>2293.778448200696</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.042325952467</v>
+        <v>2790.042325952468</v>
       </c>
       <c r="P29" t="n">
         <v>3196.304619233129</v>
@@ -6488,25 +6488,25 @@
         <v>3495.881498325678</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.586945439187</v>
+        <v>3424.586945439188</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.154112659857</v>
+        <v>3306.154112659859</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.858621101993</v>
+        <v>3154.858621101995</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.425700975425</v>
+        <v>2921.425700975427</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.437124810517</v>
+        <v>2662.437124810519</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.953338309501</v>
+        <v>2383.953338309503</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.957836862829</v>
+        <v>2093.957836862831</v>
       </c>
     </row>
     <row r="30">
@@ -6525,13 +6525,13 @@
         <v>635.5734140692439</v>
       </c>
       <c r="E30" t="n">
-        <v>488.545404126115</v>
+        <v>488.5454041261152</v>
       </c>
       <c r="F30" t="n">
-        <v>353.8516060759894</v>
+        <v>353.8516060759895</v>
       </c>
       <c r="G30" t="n">
-        <v>225.4139761373819</v>
+        <v>225.413976137382</v>
       </c>
       <c r="H30" t="n">
         <v>128.2853108942276</v>
@@ -6540,25 +6540,25 @@
         <v>69.91762996651356</v>
       </c>
       <c r="J30" t="n">
-        <v>69.91762996651356</v>
+        <v>157.1057476584549</v>
       </c>
       <c r="K30" t="n">
-        <v>163.8346155795532</v>
+        <v>157.1057476584549</v>
       </c>
       <c r="L30" t="n">
-        <v>591.5554553282927</v>
+        <v>397.393393501162</v>
       </c>
       <c r="M30" t="n">
-        <v>1148.822015924816</v>
+        <v>954.6599540976847</v>
       </c>
       <c r="N30" t="n">
-        <v>1734.232667189192</v>
+        <v>1540.070605362062</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.260812275063</v>
+        <v>2000.098750447932</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.794837317129</v>
+        <v>2356.632775489998</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.794837317129</v>
@@ -6619,16 +6619,16 @@
         <v>69.91762996651356</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4388199032313</v>
+        <v>129.4388199032312</v>
       </c>
       <c r="K31" t="n">
-        <v>292.2965854381805</v>
+        <v>292.2965854381803</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9226654630493</v>
+        <v>529.922665463049</v>
       </c>
       <c r="M31" t="n">
-        <v>786.866750530788</v>
+        <v>786.8667505307877</v>
       </c>
       <c r="N31" t="n">
         <v>1043.348842076131</v>
@@ -6646,22 +6646,22 @@
         <v>1519.158614774017</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.244945404807</v>
+        <v>1413.244945404808</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.654274965487</v>
+        <v>1284.654274965488</v>
       </c>
       <c r="U31" t="n">
         <v>1101.023690650387</v>
       </c>
       <c r="V31" t="n">
-        <v>943.8347401863</v>
+        <v>943.8347401863002</v>
       </c>
       <c r="W31" t="n">
-        <v>761.2246926811899</v>
+        <v>761.2246926811902</v>
       </c>
       <c r="X31" t="n">
-        <v>633.5185825540565</v>
+        <v>633.5185825540568</v>
       </c>
       <c r="Y31" t="n">
         <v>515.0297777238247</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.460651322301</v>
+        <v>1803.460651322302</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.073246632599</v>
+        <v>1525.0732466326</v>
       </c>
       <c r="D32" t="n">
         <v>1255.795635837314</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5562699209115</v>
+        <v>964.5562699209116</v>
       </c>
       <c r="F32" t="n">
         <v>653.9514332085728</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9374350233852</v>
+        <v>341.9374350233853</v>
       </c>
       <c r="H32" t="n">
         <v>118.2300102244558</v>
@@ -6710,10 +6710,10 @@
         <v>1819.762717509261</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.778448200695</v>
+        <v>2293.778448200696</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.042325952467</v>
+        <v>2790.042325952468</v>
       </c>
       <c r="P32" t="n">
         <v>3196.304619233129</v>
@@ -6731,7 +6731,7 @@
         <v>3306.154112659858</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.858621101992</v>
+        <v>3154.858621101993</v>
       </c>
       <c r="V32" t="n">
         <v>2921.425700975425</v>
@@ -6740,10 +6740,10 @@
         <v>2662.437124810517</v>
       </c>
       <c r="X32" t="n">
-        <v>2383.9533383095</v>
+        <v>2383.953338309501</v>
       </c>
       <c r="Y32" t="n">
-        <v>2093.957836862829</v>
+        <v>2093.95783686283</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>69.91762996651356</v>
       </c>
       <c r="J33" t="n">
-        <v>157.1057476584549</v>
+        <v>69.91762996651356</v>
       </c>
       <c r="K33" t="n">
-        <v>432.630746908901</v>
+        <v>345.4426292169597</v>
       </c>
       <c r="L33" t="n">
-        <v>860.3515866576405</v>
+        <v>773.1634689656992</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.618147254163</v>
+        <v>1330.430029562222</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.070605362062</v>
+        <v>1915.840680826599</v>
       </c>
       <c r="O33" t="n">
         <v>2000.098750447932</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0207630169351</v>
+        <v>435.0207630169352</v>
       </c>
       <c r="C34" t="n">
-        <v>368.9511474561062</v>
+        <v>368.9511474561064</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4256082613598</v>
+        <v>319.4256082613599</v>
       </c>
       <c r="E34" t="n">
-        <v>270.9629480001695</v>
+        <v>270.9629480001696</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0286470034375</v>
+        <v>222.0286470034376</v>
       </c>
       <c r="G34" t="n">
         <v>156.8991080177702</v>
@@ -6859,31 +6859,31 @@
         <v>129.4388199032314</v>
       </c>
       <c r="K34" t="n">
-        <v>292.2965854381782</v>
+        <v>292.2965854381805</v>
       </c>
       <c r="L34" t="n">
-        <v>529.922665463047</v>
+        <v>529.9226654630481</v>
       </c>
       <c r="M34" t="n">
-        <v>786.8667505307858</v>
+        <v>786.8667505307869</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.348842076129</v>
+        <v>1043.34884207613</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.08024946379</v>
+        <v>1277.080249463791</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.440834083849</v>
+        <v>1470.440834083851</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.169404556386</v>
+        <v>1554.169404556387</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.158614774015</v>
+        <v>1519.158614774016</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.244945404806</v>
+        <v>1413.244945404807</v>
       </c>
       <c r="T34" t="n">
         <v>1284.654274965487</v>
@@ -6892,16 +6892,16 @@
         <v>1101.023690650386</v>
       </c>
       <c r="V34" t="n">
-        <v>943.8347401862995</v>
+        <v>943.8347401862999</v>
       </c>
       <c r="W34" t="n">
-        <v>761.2246926811895</v>
+        <v>761.2246926811898</v>
       </c>
       <c r="X34" t="n">
-        <v>633.5185825540561</v>
+        <v>633.5185825540564</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.0297777238241</v>
+        <v>515.0297777238243</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>210.2822661198173</v>
       </c>
       <c r="H35" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I35" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J35" t="n">
-        <v>167.8507883414696</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K35" t="n">
-        <v>475.7673611397701</v>
+        <v>358.5467198870886</v>
       </c>
       <c r="L35" t="n">
-        <v>907.7351044410877</v>
+        <v>790.5144631884064</v>
       </c>
       <c r="M35" t="n">
-        <v>1358.549686354552</v>
+        <v>1277.311467245499</v>
       </c>
       <c r="N35" t="n">
-        <v>1831.952746473649</v>
+        <v>1750.714527364596</v>
       </c>
       <c r="O35" t="n">
-        <v>2226.730842692082</v>
+        <v>2145.492623583029</v>
       </c>
       <c r="P35" t="n">
-        <v>2531.507354439405</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q35" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R35" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="S35" t="n">
         <v>2524.268107320814</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>916.8282409603524</v>
+        <v>916.8282409603515</v>
       </c>
       <c r="C36" t="n">
-        <v>755.1245682013073</v>
+        <v>755.1245682013064</v>
       </c>
       <c r="D36" t="n">
-        <v>616.2859311915192</v>
+        <v>616.2859311915183</v>
       </c>
       <c r="E36" t="n">
-        <v>469.2579212483904</v>
+        <v>469.2579212483895</v>
       </c>
       <c r="F36" t="n">
-        <v>334.5641231982648</v>
+        <v>334.5641231982639</v>
       </c>
       <c r="G36" t="n">
-        <v>206.1264932596573</v>
+        <v>206.1264932596565</v>
       </c>
       <c r="H36" t="n">
         <v>108.9978280165022</v>
       </c>
       <c r="I36" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J36" t="n">
         <v>137.8182647807294</v>
@@ -7026,40 +7026,40 @@
         <v>1398.330664376438</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.783122484337</v>
+        <v>1520.783122484336</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.811267570207</v>
+        <v>1980.811267570206</v>
       </c>
       <c r="P36" t="n">
-        <v>2337.345292612274</v>
+        <v>2337.345292612273</v>
       </c>
       <c r="Q36" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R36" t="n">
-        <v>2489.782542812666</v>
+        <v>2489.782542812665</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.385839208683</v>
+        <v>2342.385839208682</v>
       </c>
       <c r="T36" t="n">
-        <v>2154.873145747568</v>
+        <v>2154.873145747567</v>
       </c>
       <c r="U36" t="n">
-        <v>1936.397489532596</v>
+        <v>1936.397489532595</v>
       </c>
       <c r="V36" t="n">
-        <v>1708.00186698093</v>
+        <v>1708.001866980929</v>
       </c>
       <c r="W36" t="n">
-        <v>1466.68599821424</v>
+        <v>1466.685998214239</v>
       </c>
       <c r="X36" t="n">
         <v>1268.769010092034</v>
       </c>
       <c r="Y36" t="n">
-        <v>1076.247683741613</v>
+        <v>1076.247683741612</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.71869009948367</v>
+        <v>53.7186900994836</v>
       </c>
       <c r="C37" t="n">
-        <v>51.70438030655511</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="D37" t="n">
-        <v>51.70438030655511</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="E37" t="n">
-        <v>51.70438030655511</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="F37" t="n">
-        <v>51.70438030655511</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="G37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="H37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J37" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K37" t="n">
-        <v>112.0021310903985</v>
+        <v>112.0021310903984</v>
       </c>
       <c r="L37" t="n">
         <v>248.1424295819285</v>
@@ -7120,25 +7120,25 @@
         <v>782.7174720693757</v>
       </c>
       <c r="S37" t="n">
-        <v>583.555732112053</v>
+        <v>740.8591084680668</v>
       </c>
       <c r="T37" t="n">
-        <v>519.0203674406335</v>
+        <v>676.3237437966474</v>
       </c>
       <c r="U37" t="n">
-        <v>399.4450888934332</v>
+        <v>399.445088893433</v>
       </c>
       <c r="V37" t="n">
-        <v>306.3114441972469</v>
+        <v>306.3114441972468</v>
       </c>
       <c r="W37" t="n">
-        <v>187.7567024600372</v>
+        <v>187.756702460037</v>
       </c>
       <c r="X37" t="n">
-        <v>124.1058981008041</v>
+        <v>124.105898100804</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.67239903847236</v>
+        <v>69.67239903847225</v>
       </c>
     </row>
     <row r="38">
@@ -7166,43 +7166,43 @@
         <v>210.2822661198173</v>
       </c>
       <c r="H38" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I38" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J38" t="n">
-        <v>50.6301470887881</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K38" t="n">
-        <v>287.8145451280344</v>
+        <v>475.7673611397701</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7822884293521</v>
+        <v>907.7351044410877</v>
       </c>
       <c r="M38" t="n">
-        <v>1206.579292486445</v>
+        <v>1394.53210849818</v>
       </c>
       <c r="N38" t="n">
-        <v>1679.982352605542</v>
+        <v>1867.935168617277</v>
       </c>
       <c r="O38" t="n">
-        <v>2074.760448823975</v>
+        <v>2262.713264835711</v>
       </c>
       <c r="P38" t="n">
-        <v>2379.536960571298</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q38" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R38" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="S38" t="n">
-        <v>2524.268107320814</v>
+        <v>2524.268107320815</v>
       </c>
       <c r="T38" t="n">
-        <v>2469.890580309385</v>
+        <v>2469.890580309386</v>
       </c>
       <c r="U38" t="n">
         <v>2382.650394519422</v>
@@ -7211,7 +7211,7 @@
         <v>2213.272780160754</v>
       </c>
       <c r="W38" t="n">
-        <v>2018.339509763747</v>
+        <v>2018.339509763746</v>
       </c>
       <c r="X38" t="n">
         <v>1803.911029030631</v>
@@ -7239,7 +7239,7 @@
         <v>469.2579212483896</v>
       </c>
       <c r="F39" t="n">
-        <v>334.564123198264</v>
+        <v>334.5641231982639</v>
       </c>
       <c r="G39" t="n">
         <v>206.1264932596565</v>
@@ -7248,28 +7248,28 @@
         <v>108.9978280165022</v>
       </c>
       <c r="I39" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J39" t="n">
         <v>137.8182647807294</v>
       </c>
       <c r="K39" t="n">
-        <v>413.3432640311755</v>
+        <v>137.8182647807294</v>
       </c>
       <c r="L39" t="n">
-        <v>841.0641037799151</v>
+        <v>565.5391045294689</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.53453304709</v>
+        <v>1122.805665125992</v>
       </c>
       <c r="N39" t="n">
-        <v>1714.945184311467</v>
+        <v>1708.216316390369</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.973329397337</v>
+        <v>2168.244461476238</v>
       </c>
       <c r="P39" t="n">
-        <v>2531.507354439404</v>
+        <v>2524.778486518305</v>
       </c>
       <c r="Q39" t="n">
         <v>2531.507354439404</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.0220664554975</v>
+        <v>53.7186900994836</v>
       </c>
       <c r="C40" t="n">
-        <v>209.0077566625689</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="D40" t="n">
-        <v>209.0077566625689</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="E40" t="n">
-        <v>56.99874242388771</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="F40" t="n">
-        <v>56.99874242388771</v>
+        <v>51.70438030655506</v>
       </c>
       <c r="G40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="H40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J40" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K40" t="n">
-        <v>112.0021310903985</v>
+        <v>112.0021310903984</v>
       </c>
       <c r="L40" t="n">
         <v>248.1424295819285</v>
@@ -7372,10 +7372,10 @@
         <v>345.060078816051</v>
       </c>
       <c r="X40" t="n">
-        <v>281.4092744568179</v>
+        <v>281.409274456818</v>
       </c>
       <c r="Y40" t="n">
-        <v>226.9757753944861</v>
+        <v>226.9757753944862</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1478.940042570573</v>
+        <v>1181.647501590778</v>
       </c>
       <c r="C41" t="n">
-        <v>1243.372762150215</v>
+        <v>946.0802211704199</v>
       </c>
       <c r="D41" t="n">
-        <v>1016.915275624272</v>
+        <v>719.622734644478</v>
       </c>
       <c r="E41" t="n">
-        <v>768.4960339772135</v>
+        <v>499.3021600613692</v>
       </c>
       <c r="F41" t="n">
-        <v>500.7113215342181</v>
+        <v>231.517447618374</v>
       </c>
       <c r="G41" t="n">
-        <v>231.5174476183742</v>
+        <v>231.517447618374</v>
       </c>
       <c r="H41" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I41" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J41" t="n">
-        <v>50.6301470887881</v>
+        <v>167.8507883414696</v>
       </c>
       <c r="K41" t="n">
-        <v>287.8145451280344</v>
+        <v>287.8145451280335</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7822884293521</v>
+        <v>719.7822884293512</v>
       </c>
       <c r="M41" t="n">
-        <v>1206.579292486445</v>
+        <v>1206.579292486444</v>
       </c>
       <c r="N41" t="n">
-        <v>1679.982352605542</v>
+        <v>1679.982352605541</v>
       </c>
       <c r="O41" t="n">
-        <v>2074.760448823975</v>
+        <v>2074.760448823974</v>
       </c>
       <c r="P41" t="n">
-        <v>2379.536960571298</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q41" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R41" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="S41" t="n">
-        <v>2531.507354439405</v>
+        <v>2503.032925822257</v>
       </c>
       <c r="T41" t="n">
-        <v>2531.507354439405</v>
+        <v>2427.420217312271</v>
       </c>
       <c r="U41" t="n">
-        <v>2531.507354439405</v>
+        <v>2318.944850023751</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.894558582181</v>
+        <v>2128.332054166527</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.456143250758</v>
+        <v>1912.163602270963</v>
       </c>
       <c r="X41" t="n">
-        <v>1973.792481019086</v>
+        <v>1676.499940039291</v>
       </c>
       <c r="Y41" t="n">
-        <v>1726.617103841758</v>
+        <v>1429.324562861963</v>
       </c>
     </row>
     <row r="42">
@@ -7476,7 +7476,7 @@
         <v>469.2579212483896</v>
       </c>
       <c r="F42" t="n">
-        <v>334.564123198264</v>
+        <v>334.5641231982639</v>
       </c>
       <c r="G42" t="n">
         <v>206.1264932596565</v>
@@ -7485,28 +7485,28 @@
         <v>108.9978280165022</v>
       </c>
       <c r="I42" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J42" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K42" t="n">
-        <v>144.5471327018276</v>
+        <v>326.1551463392342</v>
       </c>
       <c r="L42" t="n">
-        <v>572.2679724505671</v>
+        <v>753.8759860879736</v>
       </c>
       <c r="M42" t="n">
-        <v>1129.53453304709</v>
+        <v>1311.142546684496</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.945184311467</v>
+        <v>1877.317147526403</v>
       </c>
       <c r="O42" t="n">
-        <v>2174.973329397337</v>
+        <v>2337.345292612273</v>
       </c>
       <c r="P42" t="n">
-        <v>2531.507354439404</v>
+        <v>2337.345292612273</v>
       </c>
       <c r="Q42" t="n">
         <v>2531.507354439404</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.4892491308186</v>
+        <v>125.4892491308175</v>
       </c>
       <c r="C43" t="n">
-        <v>102.2397578393331</v>
+        <v>102.2397578393322</v>
       </c>
       <c r="D43" t="n">
-        <v>95.53434291393012</v>
+        <v>95.53434291392941</v>
       </c>
       <c r="E43" t="n">
-        <v>89.89180692208323</v>
+        <v>89.89180692208269</v>
       </c>
       <c r="F43" t="n">
-        <v>83.77763019469462</v>
+        <v>83.77763019469425</v>
       </c>
       <c r="G43" t="n">
-        <v>61.46821547837074</v>
+        <v>61.46821547837055</v>
       </c>
       <c r="H43" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I43" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J43" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K43" t="n">
-        <v>112.0021310903985</v>
+        <v>112.0021310903984</v>
       </c>
       <c r="L43" t="n">
         <v>248.1424295819285</v>
@@ -7582,37 +7582,37 @@
         <v>558.597043128333</v>
       </c>
       <c r="O43" t="n">
-        <v>767.5373749157494</v>
+        <v>690.8426689826551</v>
       </c>
       <c r="P43" t="n">
-        <v>859.41217800247</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="Q43" t="n">
-        <v>859.41217800247</v>
+        <v>867.0661067331494</v>
       </c>
       <c r="R43" t="n">
-        <v>867.0661067331521</v>
+        <v>867.0661067331494</v>
       </c>
       <c r="S43" t="n">
-        <v>803.9725616332862</v>
+        <v>803.9725616332837</v>
       </c>
       <c r="T43" t="n">
-        <v>718.2020154633099</v>
+        <v>718.2020154633076</v>
       </c>
       <c r="U43" t="n">
-        <v>577.3915554175526</v>
+        <v>577.3915554175505</v>
       </c>
       <c r="V43" t="n">
-        <v>463.0227292228094</v>
+        <v>463.0227292228076</v>
       </c>
       <c r="W43" t="n">
-        <v>323.2328059870428</v>
+        <v>323.2328059870412</v>
       </c>
       <c r="X43" t="n">
-        <v>238.3468201292528</v>
+        <v>238.3468201292514</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.6781395683641</v>
+        <v>162.6781395683629</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1478.940042570573</v>
+        <v>1298.052742040986</v>
       </c>
       <c r="C44" t="n">
-        <v>1243.372762150214</v>
+        <v>1062.485461620627</v>
       </c>
       <c r="D44" t="n">
-        <v>1016.915275624272</v>
+        <v>836.0279750946854</v>
       </c>
       <c r="E44" t="n">
-        <v>768.4960339772133</v>
+        <v>587.6087334476267</v>
       </c>
       <c r="F44" t="n">
-        <v>500.7113215342179</v>
+        <v>319.8240210046317</v>
       </c>
       <c r="G44" t="n">
-        <v>231.5174476183742</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="H44" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I44" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J44" t="n">
-        <v>167.8507883414696</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K44" t="n">
-        <v>475.7673611397701</v>
+        <v>358.5467198870886</v>
       </c>
       <c r="L44" t="n">
-        <v>907.7351044410877</v>
+        <v>790.5144631884064</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.53210849818</v>
+        <v>1277.311467245499</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.935168617277</v>
+        <v>1679.982352605541</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.713264835711</v>
+        <v>2074.760448823974</v>
       </c>
       <c r="P44" t="n">
-        <v>2379.536960571298</v>
+        <v>2379.536960571297</v>
       </c>
       <c r="Q44" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="R44" t="n">
-        <v>2531.507354439405</v>
+        <v>2531.507354439404</v>
       </c>
       <c r="S44" t="n">
-        <v>2503.032925822258</v>
+        <v>2503.032925822257</v>
       </c>
       <c r="T44" t="n">
-        <v>2503.032925822258</v>
+        <v>2427.420217312271</v>
       </c>
       <c r="U44" t="n">
-        <v>2503.032925822258</v>
+        <v>2318.94485002375</v>
       </c>
       <c r="V44" t="n">
-        <v>2425.624595146322</v>
+        <v>2128.332054166526</v>
       </c>
       <c r="W44" t="n">
-        <v>2209.456143250758</v>
+        <v>1912.163602270962</v>
       </c>
       <c r="X44" t="n">
-        <v>1973.792481019086</v>
+        <v>1676.49994003929</v>
       </c>
       <c r="Y44" t="n">
-        <v>1726.617103841758</v>
+        <v>1545.72980331217</v>
       </c>
     </row>
     <row r="45">
@@ -7713,7 +7713,7 @@
         <v>469.2579212483896</v>
       </c>
       <c r="F45" t="n">
-        <v>334.564123198264</v>
+        <v>334.5641231982639</v>
       </c>
       <c r="G45" t="n">
         <v>206.1264932596565</v>
@@ -7722,28 +7722,28 @@
         <v>108.9978280165022</v>
       </c>
       <c r="I45" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J45" t="n">
-        <v>50.6301470887881</v>
+        <v>137.8182647807294</v>
       </c>
       <c r="K45" t="n">
-        <v>144.5471327018276</v>
+        <v>413.3432640311755</v>
       </c>
       <c r="L45" t="n">
-        <v>572.2679724505671</v>
+        <v>841.0641037799151</v>
       </c>
       <c r="M45" t="n">
-        <v>1129.53453304709</v>
+        <v>935.3724712199589</v>
       </c>
       <c r="N45" t="n">
-        <v>1714.945184311467</v>
+        <v>1520.783122484336</v>
       </c>
       <c r="O45" t="n">
-        <v>2174.973329397337</v>
+        <v>1980.811267570206</v>
       </c>
       <c r="P45" t="n">
-        <v>2531.507354439404</v>
+        <v>2337.345292612273</v>
       </c>
       <c r="Q45" t="n">
         <v>2531.507354439404</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.4892491308186</v>
+        <v>125.4892491308173</v>
       </c>
       <c r="C46" t="n">
-        <v>102.2397578393331</v>
+        <v>102.2397578393321</v>
       </c>
       <c r="D46" t="n">
-        <v>95.53434291393012</v>
+        <v>95.53434291392929</v>
       </c>
       <c r="E46" t="n">
-        <v>89.89180692208323</v>
+        <v>89.89180692208261</v>
       </c>
       <c r="F46" t="n">
-        <v>83.77763019469462</v>
+        <v>83.7776301946942</v>
       </c>
       <c r="G46" t="n">
-        <v>61.46821547837074</v>
+        <v>61.46821547837052</v>
       </c>
       <c r="H46" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="I46" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="J46" t="n">
-        <v>50.6301470887881</v>
+        <v>50.63014708878808</v>
       </c>
       <c r="K46" t="n">
-        <v>112.0021310903985</v>
+        <v>112.0021310903984</v>
       </c>
       <c r="L46" t="n">
         <v>248.1424295819285</v>
       </c>
       <c r="M46" t="n">
-        <v>487.9493677801048</v>
+        <v>403.6007331163285</v>
       </c>
       <c r="N46" t="n">
-        <v>642.9456777921093</v>
+        <v>558.597043128333</v>
       </c>
       <c r="O46" t="n">
-        <v>775.1913036464315</v>
+        <v>690.8426689826551</v>
       </c>
       <c r="P46" t="n">
-        <v>867.0661067331521</v>
+        <v>782.7174720693757</v>
       </c>
       <c r="Q46" t="n">
-        <v>867.0661067331521</v>
+        <v>867.0661067331491</v>
       </c>
       <c r="R46" t="n">
-        <v>867.0661067331521</v>
+        <v>867.0661067331491</v>
       </c>
       <c r="S46" t="n">
-        <v>803.9725616332862</v>
+        <v>803.9725616332835</v>
       </c>
       <c r="T46" t="n">
-        <v>718.2020154633099</v>
+        <v>718.2020154633074</v>
       </c>
       <c r="U46" t="n">
-        <v>577.3915554175526</v>
+        <v>577.3915554175503</v>
       </c>
       <c r="V46" t="n">
-        <v>463.0227292228094</v>
+        <v>463.0227292228074</v>
       </c>
       <c r="W46" t="n">
-        <v>323.2328059870428</v>
+        <v>323.2328059870409</v>
       </c>
       <c r="X46" t="n">
-        <v>238.3468201292528</v>
+        <v>238.3468201292511</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.6781395683641</v>
+        <v>162.6781395683627</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>183.4797187705367</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>228.4869913181441</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.5040395062524</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.84954019309582</v>
+        <v>75.84954019309576</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>243.5793538541589</v>
+        <v>243.5793538541585</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>394.5162642358997</v>
+        <v>548.021712587522</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>122.5040395062523</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3250596720893</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>50.05119662304299</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>333.9053391079829</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>76.9771792817242</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>183.4797187705369</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9179,10 +9179,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>228.4869913181441</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.5040395062525</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>65.49672806539655</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>155.5105481047233</v>
+        <v>433.8186281556787</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.4209115896743</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9410,13 +9410,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>378.6996724307959</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>346.891679452167</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9486,13 +9486,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>602.4569383592356</v>
+        <v>137.7820443331034</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>47.34612103361711</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.4209115896743</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>353.108249610802</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.5628466871153</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>75.84954019309579</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,16 +9726,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>243.579353854159</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>142.4903554649019</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.97717928172429</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9957,13 +9957,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>210.5812051274794</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>155.5105481047226</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>76.97717928172426</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.84954019309578</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>160.3623700987699</v>
+        <v>65.49672806539655</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>292.7659904035551</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.9771792817242</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.84954019309579</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>155.5105481047221</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>132.4552822672866</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>101.4209115896742</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>548.0217125875223</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>346.891679452165</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.5040395062524</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>155.5105481047232</v>
+        <v>155.5105481047223</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>101.4209115896742</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>349.9423951717523</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>228.4869913181432</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10902,13 +10902,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>65.49672806539655</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>333.9053391079817</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.97717928172423</v>
+        <v>83.77401556566191</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>101.4209115896742</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>349.9423951717523</v>
+        <v>231.5377070377297</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11139,7 +11139,7 @@
         <v>75.84954019309579</v>
       </c>
       <c r="K42" t="n">
-        <v>160.3623700987698</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>603.7147326845281</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>53.86622040154781</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.97717928172423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>101.4209115896742</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,13 +11306,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>497.1043605648166</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>228.4869913181441</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,16 +11373,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.84954019309579</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>160.3623700987698</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>137.7820443331021</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.97717928172423</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.5848346873328</v>
       </c>
       <c r="E11" t="n">
-        <v>288.3269722572383</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.8938582033354</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4703505509403</v>
+        <v>221.4703505509402</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.82925645536285</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>90.85749450148991</v>
       </c>
       <c r="W11" t="n">
-        <v>138.7429251580792</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.0955464322045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>287.5922136851231</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>266.5848346873328</v>
+        <v>2.993493797402436</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.3269722572383</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.8938582033354</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.82925645536285</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.77114174028162</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.7825366422858</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>231.0985909253021</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.398690403259</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-4.858335955759685e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.048121589519724e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>27.81768039331047</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>266.5019351766852</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.437333428712819</v>
+        <v>5.437333428712648</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>28.18968433097581</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>74.85658142488592</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>107.3906136156358</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>83.88273619850042</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>179.07842752429</v>
       </c>
       <c r="I44" t="n">
-        <v>5.437333428712819</v>
+        <v>5.43733342871262</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>74.85658142488592</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.3906136156358</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>112.0724205294758</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>115.2411880457059</v>
       </c>
     </row>
     <row r="45">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>844572.9441294803</v>
+        <v>844572.9441294802</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844572.9441294803</v>
+        <v>844572.9441294802</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>850617.8104545446</v>
+        <v>850617.8104545444</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>844572.9441294802</v>
+        <v>844572.94412948</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>823694.8726317202</v>
+        <v>823694.8726317203</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>823694.8726317202</v>
+        <v>823694.8726317203</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670142.0525688914</v>
+        <v>670142.0525688913</v>
       </c>
       <c r="C2" t="n">
         <v>670142.0525688912</v>
@@ -26320,13 +26320,13 @@
         <v>670142.0525688913</v>
       </c>
       <c r="E2" t="n">
-        <v>606504.0198525566</v>
+        <v>606504.019852557</v>
       </c>
       <c r="F2" t="n">
-        <v>606504.0198525571</v>
+        <v>606504.019852557</v>
       </c>
       <c r="G2" t="n">
-        <v>671671.0529324093</v>
+        <v>671671.0529324095</v>
       </c>
       <c r="H2" t="n">
         <v>671671.0529324093</v>
@@ -26335,25 +26335,25 @@
         <v>671671.0529324092</v>
       </c>
       <c r="J2" t="n">
+        <v>671671.0529324086</v>
+      </c>
+      <c r="K2" t="n">
         <v>671671.0529324088</v>
       </c>
-      <c r="K2" t="n">
-        <v>671671.0529324086</v>
-      </c>
       <c r="L2" t="n">
-        <v>671671.0529324084</v>
+        <v>671671.0529324089</v>
       </c>
       <c r="M2" t="n">
-        <v>671671.0529324095</v>
+        <v>671671.0529324091</v>
       </c>
       <c r="N2" t="n">
         <v>671671.0529324092</v>
       </c>
       <c r="O2" t="n">
-        <v>650792.9814346479</v>
+        <v>650792.981434648</v>
       </c>
       <c r="P2" t="n">
-        <v>650792.9814346483</v>
+        <v>650792.981434648</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>378528.8055118676</v>
+        <v>378528.8055118679</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50731.80216817709</v>
+        <v>50731.80216817708</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94357.58730774058</v>
+        <v>94357.58730774067</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50731.80216817716</v>
+        <v>50731.80216817713</v>
       </c>
       <c r="M3" t="n">
         <v>148365.7683188477</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14458.64643513853</v>
+        <v>14458.6464351387</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>279517.6822054849</v>
       </c>
       <c r="F4" t="n">
-        <v>279517.682205485</v>
+        <v>279517.6822054848</v>
       </c>
       <c r="G4" t="n">
+        <v>321792.0173309652</v>
+      </c>
+      <c r="H4" t="n">
         <v>321792.0173309653</v>
       </c>
-      <c r="H4" t="n">
-        <v>321792.0173309654</v>
-      </c>
       <c r="I4" t="n">
-        <v>321792.0173309653</v>
+        <v>321792.0173309652</v>
       </c>
       <c r="J4" t="n">
         <v>320422.9022284455</v>
@@ -26448,16 +26448,16 @@
         <v>320422.9022284455</v>
       </c>
       <c r="M4" t="n">
-        <v>321792.0173309653</v>
+        <v>321792.0173309652</v>
       </c>
       <c r="N4" t="n">
-        <v>321792.0173309653</v>
+        <v>321792.0173309652</v>
       </c>
       <c r="O4" t="n">
-        <v>308199.4348946363</v>
+        <v>308199.4348946364</v>
       </c>
       <c r="P4" t="n">
-        <v>308199.4348946363</v>
+        <v>308199.4348946364</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>50015.41325331541</v>
+        <v>50015.41325331543</v>
       </c>
       <c r="F5" t="n">
-        <v>50015.41325331541</v>
+        <v>50015.41325331543</v>
       </c>
       <c r="G5" t="n">
-        <v>55346.62809891101</v>
+        <v>55346.62809891102</v>
       </c>
       <c r="H5" t="n">
         <v>55346.62809891102</v>
       </c>
       <c r="I5" t="n">
+        <v>55346.62809891102</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64673.90024038678</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64673.90024038677</v>
+      </c>
+      <c r="L5" t="n">
+        <v>64673.90024038678</v>
+      </c>
+      <c r="M5" t="n">
         <v>55346.62809891101</v>
       </c>
-      <c r="J5" t="n">
-        <v>64673.90024038676</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64673.90024038676</v>
-      </c>
-      <c r="L5" t="n">
-        <v>64673.90024038677</v>
-      </c>
-      <c r="M5" t="n">
-        <v>55346.62809891102</v>
-      </c>
       <c r="N5" t="n">
-        <v>55346.62809891102</v>
+        <v>55346.62809891101</v>
       </c>
       <c r="O5" t="n">
         <v>53579.25983024287</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230369.797143992</v>
+        <v>230365.4285715247</v>
       </c>
       <c r="C6" t="n">
-        <v>230369.7971439918</v>
+        <v>230365.4285715246</v>
       </c>
       <c r="D6" t="n">
-        <v>230369.7971439919</v>
+        <v>230365.4285715247</v>
       </c>
       <c r="E6" t="n">
-        <v>-101557.8811181113</v>
+        <v>-101744.0726411965</v>
       </c>
       <c r="F6" t="n">
-        <v>276970.9243937567</v>
+        <v>276784.7328706714</v>
       </c>
       <c r="G6" t="n">
-        <v>243800.6053343559</v>
+        <v>243800.6053343561</v>
       </c>
       <c r="H6" t="n">
-        <v>294532.4075025329</v>
+        <v>294532.4075025331</v>
       </c>
       <c r="I6" t="n">
-        <v>294532.4075025329</v>
+        <v>294532.407502533</v>
       </c>
       <c r="J6" t="n">
-        <v>192216.6631558359</v>
+        <v>192216.6631558356</v>
       </c>
       <c r="K6" t="n">
-        <v>286574.2504635765</v>
+        <v>286574.2504635766</v>
       </c>
       <c r="L6" t="n">
-        <v>235842.4482953989</v>
+        <v>235842.4482953995</v>
       </c>
       <c r="M6" t="n">
-        <v>146166.6391836855</v>
+        <v>146166.6391836852</v>
       </c>
       <c r="N6" t="n">
-        <v>294532.4075025329</v>
+        <v>294532.407502533</v>
       </c>
       <c r="O6" t="n">
-        <v>274555.6402746303</v>
+        <v>274495.9886417794</v>
       </c>
       <c r="P6" t="n">
-        <v>289014.2867097692</v>
+        <v>288954.6350769181</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>102.5108904377159</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="J2" t="n">
         <v>102.5108904377159</v>
@@ -26716,16 +26716,16 @@
         <v>102.5108904377159</v>
       </c>
       <c r="M2" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="N2" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="O2" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="P2" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
     </row>
     <row r="3">
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.8767622765198</v>
+        <v>133.87676227652</v>
       </c>
       <c r="F3" t="n">
-        <v>133.8767622765197</v>
+        <v>133.87676227652</v>
       </c>
       <c r="G3" t="n">
-        <v>133.8767622765197</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="H3" t="n">
-        <v>133.8767622765197</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8767622765197</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="J3" t="n">
         <v>133.8767622765198</v>
       </c>
       <c r="K3" t="n">
-        <v>133.87676227652</v>
+        <v>133.8767622765199</v>
       </c>
       <c r="L3" t="n">
         <v>133.8767622765199</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8768386098511</v>
+        <v>632.8768386098512</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8768386098511</v>
+        <v>632.8768386098512</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8768386098511</v>
+        <v>632.8768386098512</v>
       </c>
       <c r="H4" t="n">
         <v>632.8768386098512</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8768386098511</v>
+        <v>632.8768386098512</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9703745814194</v>
+        <v>873.9703745814196</v>
       </c>
       <c r="K4" t="n">
-        <v>873.9703745814194</v>
+        <v>873.9703745814195</v>
       </c>
       <c r="L4" t="n">
-        <v>873.9703745814194</v>
+        <v>873.9703745814195</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8768386098512</v>
+        <v>632.876838609851</v>
       </c>
       <c r="N4" t="n">
-        <v>632.8768386098512</v>
+        <v>632.876838609851</v>
       </c>
       <c r="O4" t="n">
-        <v>632.8768386098512</v>
+        <v>632.876838609851</v>
       </c>
       <c r="P4" t="n">
-        <v>632.8768386098512</v>
+        <v>632.876838609851</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>102.5108904377159</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.41475271022136</v>
+        <v>63.41475271022135</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.09613772749447</v>
+        <v>39.09613772749454</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.41475271022145</v>
+        <v>63.41475271022141</v>
       </c>
       <c r="M2" t="n">
-        <v>63.41475271022128</v>
+        <v>63.41475271022134</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.07330804392316</v>
+        <v>18.07330804392338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.8767622765198</v>
+        <v>133.87676227652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8768386098511</v>
+        <v>632.8768386098512</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0935359715683</v>
+        <v>241.0935359715684</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>391.783302638283</v>
+        <v>391.7833026382827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>102.5108904377159</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.41475271022136</v>
+        <v>63.41475271022135</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.09613772749447</v>
+        <v>39.09613772749454</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8768386098511</v>
+        <v>632.8768386098512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.92432105276373</v>
+        <v>55.92432105276367</v>
       </c>
       <c r="S11" t="n">
         <v>102.5108904377159</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.92432105276375</v>
+        <v>55.92432105276367</v>
       </c>
       <c r="S14" t="n">
         <v>102.5108904377159</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="I17" t="n">
-        <v>150.3401468930788</v>
+        <v>150.3401468930787</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.92432105276375</v>
+        <v>55.92432105276369</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28731,10 +28731,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="H19" t="n">
         <v>155.6325011700527</v>
@@ -28743,7 +28743,7 @@
         <v>135.5009429761232</v>
       </c>
       <c r="J19" t="n">
-        <v>42.38847636022321</v>
+        <v>42.38847636022318</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.93657682909338</v>
+        <v>17.93657682909335</v>
       </c>
       <c r="R19" t="n">
         <v>137.1715723222628</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9256431479373</v>
+        <v>10.19530055548358</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.1511489799641</v>
+        <v>165.9256431479372</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="I20" t="n">
-        <v>150.3401468930788</v>
+        <v>150.3401468930787</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.92432105276375</v>
+        <v>55.92432105276369</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
     </row>
     <row r="21">
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="C22" t="n">
-        <v>161.7364747959984</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="H22" t="n">
         <v>155.6325011700527</v>
@@ -28980,7 +28980,7 @@
         <v>135.5009429761232</v>
       </c>
       <c r="J22" t="n">
-        <v>42.38847636022321</v>
+        <v>42.38847636022318</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.93657682909338</v>
+        <v>17.93657682909335</v>
       </c>
       <c r="R22" t="n">
         <v>137.1715723222628</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9256431479373</v>
+        <v>10.19530055548358</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="I23" t="n">
-        <v>150.3401468930788</v>
+        <v>150.3401468930787</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.92432105276375</v>
+        <v>55.92432105276369</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>10.1953005554835</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="H25" t="n">
         <v>155.6325011700527</v>
@@ -29217,7 +29217,7 @@
         <v>135.5009429761232</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38847636022321</v>
+        <v>42.38847636022318</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.93657682909338</v>
+        <v>17.93657682909335</v>
       </c>
       <c r="R25" t="n">
         <v>137.1715723222628</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9256431479373</v>
+        <v>10.19530055548353</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9256431479373</v>
+        <v>165.9256431479372</v>
       </c>
     </row>
     <row r="26">
@@ -29308,13 +29308,13 @@
         <v>102.5108904377159</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6188591639781293</v>
+        <v>102.5108904377159</v>
       </c>
       <c r="O26" t="n">
         <v>102.5108904377159</v>
       </c>
       <c r="P26" t="n">
-        <v>102.5108904377159</v>
+        <v>0.6188591639786978</v>
       </c>
       <c r="Q26" t="n">
         <v>102.5108904377159</v>
@@ -29533,7 +29533,7 @@
         <v>102.5108904377159</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6188591639775467</v>
+        <v>102.5108904377159</v>
       </c>
       <c r="K29" t="n">
         <v>102.5108904377159</v>
@@ -29542,7 +29542,7 @@
         <v>102.5108904377159</v>
       </c>
       <c r="M29" t="n">
-        <v>102.5108904377159</v>
+        <v>0.6188591639779588</v>
       </c>
       <c r="N29" t="n">
         <v>102.5108904377159</v>
@@ -29782,7 +29782,7 @@
         <v>102.5108904377159</v>
       </c>
       <c r="N32" t="n">
-        <v>0.6188591639776178</v>
+        <v>0.6188591639780725</v>
       </c>
       <c r="O32" t="n">
         <v>102.5108904377159</v>
@@ -29931,10 +29931,10 @@
         <v>102.5108904377159</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5108904377136</v>
+        <v>102.5108904377159</v>
       </c>
       <c r="L34" t="n">
-        <v>102.5108904377159</v>
+        <v>102.5108904377147</v>
       </c>
       <c r="M34" t="n">
         <v>102.5108904377159</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="C35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="D35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="E35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="F35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="G35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="H35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="I35" t="n">
         <v>150.3401468930787</v>
@@ -30034,25 +30034,25 @@
         <v>55.92432105276369</v>
       </c>
       <c r="S35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="T35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="V35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="W35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="X35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="C37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="H37" t="n">
         <v>155.6325011700527</v>
@@ -30192,25 +30192,25 @@
         <v>137.1715723222628</v>
       </c>
       <c r="S37" t="n">
-        <v>10.19530055548358</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="T37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="U37" t="n">
-        <v>165.9256431479372</v>
+        <v>10.1953005554833</v>
       </c>
       <c r="V37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="W37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="X37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="C38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="D38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="E38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="F38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="G38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="H38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="I38" t="n">
         <v>150.3401468930787</v>
@@ -30271,25 +30271,25 @@
         <v>55.92432105276369</v>
       </c>
       <c r="S38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="T38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="V38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="W38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="X38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
     </row>
     <row r="39">
@@ -30378,22 +30378,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.9256431479372</v>
+        <v>10.19530055548341</v>
       </c>
       <c r="C40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>160.684224651778</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="H40" t="n">
         <v>155.6325011700527</v>
@@ -30429,25 +30429,25 @@
         <v>137.1715723222628</v>
       </c>
       <c r="S40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="T40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="U40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="V40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="W40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="X40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.9256431479372</v>
+        <v>165.9256431479373</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="C41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="D41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="E41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="F41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="G41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="I41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>55.92432105276369</v>
       </c>
       <c r="S41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="T41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="U41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="V41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="W41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="X41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="Y41" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="C43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="D43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="E43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="F43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="G43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="H43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="I43" t="n">
         <v>135.5009429761232</v>
@@ -30654,37 +30654,37 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>77.4693999324185</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.93657682909335</v>
+        <v>103.1372179036122</v>
       </c>
       <c r="R43" t="n">
-        <v>144.9028134643659</v>
+        <v>137.1715723222628</v>
       </c>
       <c r="S43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="T43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="U43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="V43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="W43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="X43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="C44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="D44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="E44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="F44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="G44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="H44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="I44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>55.92432105276369</v>
       </c>
       <c r="S44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="T44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="U44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="V44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="W44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="X44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="Y44" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="C46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="D46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="E46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="F46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="G46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="H46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="I46" t="n">
         <v>135.5009429761232</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>85.20064107452154</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.93657682909335</v>
+        <v>103.1372179036119</v>
       </c>
       <c r="R46" t="n">
         <v>137.1715723222628</v>
       </c>
       <c r="S46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="T46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="U46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="V46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="W46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="X46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.9028134643659</v>
+        <v>144.9028134643661</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5381980393025916</v>
+        <v>0.5381980393025927</v>
       </c>
       <c r="H11" t="n">
-        <v>5.511820670007668</v>
+        <v>5.511820670007679</v>
       </c>
       <c r="I11" t="n">
-        <v>20.74887991021318</v>
+        <v>20.74887991021322</v>
       </c>
       <c r="J11" t="n">
-        <v>45.67888583825838</v>
+        <v>45.67888583825847</v>
       </c>
       <c r="K11" t="n">
-        <v>68.46080884193709</v>
+        <v>68.46080884193722</v>
       </c>
       <c r="L11" t="n">
-        <v>84.9316870872438</v>
+        <v>84.93168708724396</v>
       </c>
       <c r="M11" t="n">
-        <v>94.50286646869127</v>
+        <v>94.50286646869144</v>
       </c>
       <c r="N11" t="n">
-        <v>96.03202164785976</v>
+        <v>96.03202164785995</v>
       </c>
       <c r="O11" t="n">
-        <v>90.68031489454461</v>
+        <v>90.68031489454478</v>
       </c>
       <c r="P11" t="n">
-        <v>77.39355079926186</v>
+        <v>77.39355079926202</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.11933351673778</v>
+        <v>58.1193335167379</v>
       </c>
       <c r="R11" t="n">
-        <v>33.80758258634145</v>
+        <v>33.80758258634152</v>
       </c>
       <c r="S11" t="n">
-        <v>12.26418782060782</v>
+        <v>12.26418782060784</v>
       </c>
       <c r="T11" t="n">
-        <v>2.355961917047096</v>
+        <v>2.355961917047101</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04305584314420732</v>
+        <v>0.04305584314420741</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2879613377268538</v>
+        <v>0.2879613377268544</v>
       </c>
       <c r="H12" t="n">
-        <v>2.781100288046194</v>
+        <v>2.7811002880462</v>
       </c>
       <c r="I12" t="n">
-        <v>9.914458338402644</v>
+        <v>9.914458338402664</v>
       </c>
       <c r="J12" t="n">
-        <v>27.20603147357088</v>
+        <v>27.20603147357093</v>
       </c>
       <c r="K12" t="n">
-        <v>46.49944110127008</v>
+        <v>46.49944110127017</v>
       </c>
       <c r="L12" t="n">
-        <v>62.52423694810483</v>
+        <v>62.52423694810495</v>
       </c>
       <c r="M12" t="n">
-        <v>72.96283544070326</v>
+        <v>72.9628354407034</v>
       </c>
       <c r="N12" t="n">
-        <v>74.89394458712592</v>
+        <v>74.89394458712606</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51332757749404</v>
+        <v>68.51332757749417</v>
       </c>
       <c r="P12" t="n">
-        <v>54.98798562259546</v>
+        <v>54.98798562259556</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.75801216316822</v>
+        <v>36.7580121631683</v>
       </c>
       <c r="R12" t="n">
-        <v>17.87886270553221</v>
+        <v>17.87886270553225</v>
       </c>
       <c r="S12" t="n">
-        <v>5.34875554944397</v>
+        <v>5.348755549443981</v>
       </c>
       <c r="T12" t="n">
-        <v>1.160686269170959</v>
+        <v>1.160686269170961</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01894482485045092</v>
+        <v>0.01894482485045096</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2414171123019209</v>
+        <v>0.2414171123019213</v>
       </c>
       <c r="H13" t="n">
-        <v>2.146417598466171</v>
+        <v>2.146417598466175</v>
       </c>
       <c r="I13" t="n">
-        <v>7.260070977225041</v>
+        <v>7.260070977225054</v>
       </c>
       <c r="J13" t="n">
-        <v>17.06818983974581</v>
+        <v>17.06818983974584</v>
       </c>
       <c r="K13" t="n">
-        <v>28.04827904744135</v>
+        <v>28.0482790474414</v>
       </c>
       <c r="L13" t="n">
-        <v>35.89214049623286</v>
+        <v>35.89214049623293</v>
       </c>
       <c r="M13" t="n">
-        <v>37.84322970383656</v>
+        <v>37.84322970383663</v>
       </c>
       <c r="N13" t="n">
-        <v>36.9434022852567</v>
+        <v>36.94340228525677</v>
       </c>
       <c r="O13" t="n">
-        <v>34.12321147336606</v>
+        <v>34.12321147336613</v>
       </c>
       <c r="P13" t="n">
-        <v>29.19830238240685</v>
+        <v>29.19830238240691</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.21539110375448</v>
+        <v>20.21539110375452</v>
       </c>
       <c r="R13" t="n">
-        <v>10.85499124950273</v>
+        <v>10.85499124950275</v>
       </c>
       <c r="S13" t="n">
-        <v>4.207241857116201</v>
+        <v>4.20724185711621</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03150947983548</v>
+        <v>1.031509479835482</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01316820612555934</v>
+        <v>0.01316820612555936</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5381980393025912</v>
+        <v>0.5381980393025927</v>
       </c>
       <c r="H14" t="n">
-        <v>5.511820670007665</v>
+        <v>5.511820670007679</v>
       </c>
       <c r="I14" t="n">
-        <v>20.74887991021317</v>
+        <v>20.74887991021322</v>
       </c>
       <c r="J14" t="n">
-        <v>45.67888583825835</v>
+        <v>45.67888583825847</v>
       </c>
       <c r="K14" t="n">
-        <v>68.46080884193705</v>
+        <v>68.46080884193722</v>
       </c>
       <c r="L14" t="n">
-        <v>84.93168708724374</v>
+        <v>84.93168708724396</v>
       </c>
       <c r="M14" t="n">
-        <v>94.5028664686912</v>
+        <v>94.50286646869144</v>
       </c>
       <c r="N14" t="n">
-        <v>96.03202164785969</v>
+        <v>96.03202164785995</v>
       </c>
       <c r="O14" t="n">
-        <v>90.68031489454455</v>
+        <v>90.68031489454478</v>
       </c>
       <c r="P14" t="n">
-        <v>77.39355079926182</v>
+        <v>77.39355079926202</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.11933351673775</v>
+        <v>58.1193335167379</v>
       </c>
       <c r="R14" t="n">
-        <v>33.80758258634143</v>
+        <v>33.80758258634152</v>
       </c>
       <c r="S14" t="n">
-        <v>12.26418782060781</v>
+        <v>12.26418782060784</v>
       </c>
       <c r="T14" t="n">
-        <v>2.355961917047094</v>
+        <v>2.355961917047101</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0430558431442073</v>
+        <v>0.04305584314420741</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2879613377268537</v>
+        <v>0.2879613377268544</v>
       </c>
       <c r="H15" t="n">
-        <v>2.781100288046193</v>
+        <v>2.7811002880462</v>
       </c>
       <c r="I15" t="n">
-        <v>9.914458338402639</v>
+        <v>9.914458338402664</v>
       </c>
       <c r="J15" t="n">
-        <v>27.20603147357086</v>
+        <v>27.20603147357093</v>
       </c>
       <c r="K15" t="n">
-        <v>46.49944110127005</v>
+        <v>46.49944110127017</v>
       </c>
       <c r="L15" t="n">
-        <v>62.52423694810479</v>
+        <v>62.52423694810495</v>
       </c>
       <c r="M15" t="n">
-        <v>72.96283544070322</v>
+        <v>72.9628354407034</v>
       </c>
       <c r="N15" t="n">
-        <v>74.89394458712586</v>
+        <v>74.89394458712606</v>
       </c>
       <c r="O15" t="n">
-        <v>68.513327577494</v>
+        <v>68.51332757749417</v>
       </c>
       <c r="P15" t="n">
-        <v>54.98798562259542</v>
+        <v>54.98798562259556</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.7580121631682</v>
+        <v>36.7580121631683</v>
       </c>
       <c r="R15" t="n">
-        <v>17.8788627055322</v>
+        <v>17.87886270553225</v>
       </c>
       <c r="S15" t="n">
-        <v>5.348755549443967</v>
+        <v>5.348755549443981</v>
       </c>
       <c r="T15" t="n">
-        <v>1.160686269170958</v>
+        <v>1.160686269170961</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01894482485045091</v>
+        <v>0.01894482485045096</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2414171123019207</v>
+        <v>0.2414171123019213</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14641759846617</v>
+        <v>2.146417598466175</v>
       </c>
       <c r="I16" t="n">
-        <v>7.260070977225036</v>
+        <v>7.260070977225054</v>
       </c>
       <c r="J16" t="n">
-        <v>17.06818983974579</v>
+        <v>17.06818983974584</v>
       </c>
       <c r="K16" t="n">
-        <v>28.04827904744133</v>
+        <v>28.0482790474414</v>
       </c>
       <c r="L16" t="n">
-        <v>35.89214049623283</v>
+        <v>35.89214049623293</v>
       </c>
       <c r="M16" t="n">
-        <v>37.84322970383653</v>
+        <v>37.84322970383663</v>
       </c>
       <c r="N16" t="n">
-        <v>36.94340228525667</v>
+        <v>36.94340228525677</v>
       </c>
       <c r="O16" t="n">
-        <v>34.12321147336604</v>
+        <v>34.12321147336613</v>
       </c>
       <c r="P16" t="n">
-        <v>29.19830238240684</v>
+        <v>29.19830238240691</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.21539110375447</v>
+        <v>20.21539110375452</v>
       </c>
       <c r="R16" t="n">
-        <v>10.85499124950272</v>
+        <v>10.85499124950275</v>
       </c>
       <c r="S16" t="n">
-        <v>4.207241857116198</v>
+        <v>4.20724185711621</v>
       </c>
       <c r="T16" t="n">
-        <v>1.031509479835479</v>
+        <v>1.031509479835482</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01316820612555933</v>
+        <v>0.01316820612555936</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5381980393025912</v>
+        <v>0.5381980393025922</v>
       </c>
       <c r="H17" t="n">
-        <v>5.511820670007665</v>
+        <v>5.511820670007674</v>
       </c>
       <c r="I17" t="n">
-        <v>20.74887991021317</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J17" t="n">
-        <v>45.67888583825835</v>
+        <v>45.67888583825842</v>
       </c>
       <c r="K17" t="n">
-        <v>68.46080884193705</v>
+        <v>68.46080884193717</v>
       </c>
       <c r="L17" t="n">
-        <v>84.93168708724374</v>
+        <v>84.93168708724389</v>
       </c>
       <c r="M17" t="n">
-        <v>94.5028664686912</v>
+        <v>94.50286646869137</v>
       </c>
       <c r="N17" t="n">
-        <v>96.03202164785969</v>
+        <v>96.03202164785986</v>
       </c>
       <c r="O17" t="n">
-        <v>90.68031489454455</v>
+        <v>90.68031489454471</v>
       </c>
       <c r="P17" t="n">
-        <v>77.39355079926182</v>
+        <v>77.39355079926194</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.11933351673775</v>
+        <v>58.11933351673785</v>
       </c>
       <c r="R17" t="n">
-        <v>33.80758258634143</v>
+        <v>33.80758258634149</v>
       </c>
       <c r="S17" t="n">
-        <v>12.26418782060781</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T17" t="n">
-        <v>2.355961917047094</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0430558431442073</v>
+        <v>0.04305584314420736</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2879613377268537</v>
+        <v>0.2879613377268542</v>
       </c>
       <c r="H18" t="n">
-        <v>2.781100288046193</v>
+        <v>2.781100288046197</v>
       </c>
       <c r="I18" t="n">
-        <v>9.914458338402639</v>
+        <v>9.914458338402655</v>
       </c>
       <c r="J18" t="n">
-        <v>27.20603147357086</v>
+        <v>27.20603147357091</v>
       </c>
       <c r="K18" t="n">
-        <v>46.49944110127005</v>
+        <v>46.49944110127013</v>
       </c>
       <c r="L18" t="n">
-        <v>62.52423694810479</v>
+        <v>62.5242369481049</v>
       </c>
       <c r="M18" t="n">
-        <v>72.96283544070322</v>
+        <v>72.96283544070334</v>
       </c>
       <c r="N18" t="n">
-        <v>74.89394458712586</v>
+        <v>74.89394458712599</v>
       </c>
       <c r="O18" t="n">
-        <v>68.513327577494</v>
+        <v>68.51332757749411</v>
       </c>
       <c r="P18" t="n">
-        <v>54.98798562259542</v>
+        <v>54.98798562259552</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.7580121631682</v>
+        <v>36.75801216316827</v>
       </c>
       <c r="R18" t="n">
-        <v>17.8788627055322</v>
+        <v>17.87886270553223</v>
       </c>
       <c r="S18" t="n">
-        <v>5.348755549443967</v>
+        <v>5.348755549443976</v>
       </c>
       <c r="T18" t="n">
-        <v>1.160686269170958</v>
+        <v>1.16068626917096</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01894482485045091</v>
+        <v>0.01894482485045094</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2414171123019207</v>
+        <v>0.2414171123019211</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14641759846617</v>
+        <v>2.146417598466173</v>
       </c>
       <c r="I19" t="n">
-        <v>7.260070977225036</v>
+        <v>7.260070977225048</v>
       </c>
       <c r="J19" t="n">
-        <v>17.06818983974579</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K19" t="n">
-        <v>28.04827904744133</v>
+        <v>28.04827904744138</v>
       </c>
       <c r="L19" t="n">
-        <v>35.89214049623283</v>
+        <v>35.8921404962329</v>
       </c>
       <c r="M19" t="n">
-        <v>37.84322970383653</v>
+        <v>37.84322970383659</v>
       </c>
       <c r="N19" t="n">
-        <v>36.94340228525667</v>
+        <v>36.94340228525674</v>
       </c>
       <c r="O19" t="n">
-        <v>34.12321147336604</v>
+        <v>34.1232114733661</v>
       </c>
       <c r="P19" t="n">
-        <v>29.19830238240684</v>
+        <v>29.19830238240689</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.21539110375447</v>
+        <v>20.21539110375451</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85499124950272</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S19" t="n">
-        <v>4.207241857116198</v>
+        <v>4.207241857116206</v>
       </c>
       <c r="T19" t="n">
-        <v>1.031509479835479</v>
+        <v>1.031509479835481</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01316820612555933</v>
+        <v>0.01316820612555935</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5381980393025912</v>
+        <v>0.5381980393025922</v>
       </c>
       <c r="H20" t="n">
-        <v>5.511820670007665</v>
+        <v>5.511820670007674</v>
       </c>
       <c r="I20" t="n">
-        <v>20.74887991021317</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J20" t="n">
-        <v>45.67888583825835</v>
+        <v>45.67888583825842</v>
       </c>
       <c r="K20" t="n">
-        <v>68.46080884193705</v>
+        <v>68.46080884193717</v>
       </c>
       <c r="L20" t="n">
-        <v>84.93168708724374</v>
+        <v>84.93168708724389</v>
       </c>
       <c r="M20" t="n">
-        <v>94.5028664686912</v>
+        <v>94.50286646869137</v>
       </c>
       <c r="N20" t="n">
-        <v>96.03202164785969</v>
+        <v>96.03202164785986</v>
       </c>
       <c r="O20" t="n">
-        <v>90.68031489454455</v>
+        <v>90.68031489454471</v>
       </c>
       <c r="P20" t="n">
-        <v>77.39355079926182</v>
+        <v>77.39355079926194</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.11933351673775</v>
+        <v>58.11933351673785</v>
       </c>
       <c r="R20" t="n">
-        <v>33.80758258634143</v>
+        <v>33.80758258634149</v>
       </c>
       <c r="S20" t="n">
-        <v>12.26418782060781</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T20" t="n">
-        <v>2.355961917047094</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0430558431442073</v>
+        <v>0.04305584314420736</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2879613377268537</v>
+        <v>0.2879613377268542</v>
       </c>
       <c r="H21" t="n">
-        <v>2.781100288046193</v>
+        <v>2.781100288046197</v>
       </c>
       <c r="I21" t="n">
-        <v>9.914458338402639</v>
+        <v>9.914458338402655</v>
       </c>
       <c r="J21" t="n">
-        <v>27.20603147357086</v>
+        <v>27.20603147357091</v>
       </c>
       <c r="K21" t="n">
-        <v>46.49944110127005</v>
+        <v>46.49944110127013</v>
       </c>
       <c r="L21" t="n">
-        <v>62.52423694810479</v>
+        <v>62.5242369481049</v>
       </c>
       <c r="M21" t="n">
-        <v>72.96283544070322</v>
+        <v>72.96283544070334</v>
       </c>
       <c r="N21" t="n">
-        <v>74.89394458712586</v>
+        <v>74.89394458712599</v>
       </c>
       <c r="O21" t="n">
-        <v>68.513327577494</v>
+        <v>68.51332757749411</v>
       </c>
       <c r="P21" t="n">
-        <v>54.98798562259542</v>
+        <v>54.98798562259552</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.7580121631682</v>
+        <v>36.75801216316827</v>
       </c>
       <c r="R21" t="n">
-        <v>17.8788627055322</v>
+        <v>17.87886270553223</v>
       </c>
       <c r="S21" t="n">
-        <v>5.348755549443967</v>
+        <v>5.348755549443976</v>
       </c>
       <c r="T21" t="n">
-        <v>1.160686269170958</v>
+        <v>1.16068626917096</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01894482485045091</v>
+        <v>0.01894482485045094</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2414171123019207</v>
+        <v>0.2414171123019211</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14641759846617</v>
+        <v>2.146417598466173</v>
       </c>
       <c r="I22" t="n">
-        <v>7.260070977225036</v>
+        <v>7.260070977225048</v>
       </c>
       <c r="J22" t="n">
-        <v>17.06818983974579</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K22" t="n">
-        <v>28.04827904744133</v>
+        <v>28.04827904744138</v>
       </c>
       <c r="L22" t="n">
-        <v>35.89214049623283</v>
+        <v>35.8921404962329</v>
       </c>
       <c r="M22" t="n">
-        <v>37.84322970383653</v>
+        <v>37.84322970383659</v>
       </c>
       <c r="N22" t="n">
-        <v>36.94340228525667</v>
+        <v>36.94340228525674</v>
       </c>
       <c r="O22" t="n">
-        <v>34.12321147336604</v>
+        <v>34.1232114733661</v>
       </c>
       <c r="P22" t="n">
-        <v>29.19830238240684</v>
+        <v>29.19830238240689</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.21539110375447</v>
+        <v>20.21539110375451</v>
       </c>
       <c r="R22" t="n">
-        <v>10.85499124950272</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S22" t="n">
-        <v>4.207241857116198</v>
+        <v>4.207241857116206</v>
       </c>
       <c r="T22" t="n">
-        <v>1.031509479835479</v>
+        <v>1.031509479835481</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01316820612555933</v>
+        <v>0.01316820612555935</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5381980393025912</v>
+        <v>0.5381980393025922</v>
       </c>
       <c r="H23" t="n">
-        <v>5.511820670007665</v>
+        <v>5.511820670007674</v>
       </c>
       <c r="I23" t="n">
-        <v>20.74887991021317</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J23" t="n">
-        <v>45.67888583825835</v>
+        <v>45.67888583825842</v>
       </c>
       <c r="K23" t="n">
-        <v>68.46080884193705</v>
+        <v>68.46080884193717</v>
       </c>
       <c r="L23" t="n">
-        <v>84.93168708724374</v>
+        <v>84.93168708724389</v>
       </c>
       <c r="M23" t="n">
-        <v>94.5028664686912</v>
+        <v>94.50286646869137</v>
       </c>
       <c r="N23" t="n">
-        <v>96.03202164785969</v>
+        <v>96.03202164785986</v>
       </c>
       <c r="O23" t="n">
-        <v>90.68031489454455</v>
+        <v>90.68031489454471</v>
       </c>
       <c r="P23" t="n">
-        <v>77.39355079926182</v>
+        <v>77.39355079926194</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.11933351673775</v>
+        <v>58.11933351673785</v>
       </c>
       <c r="R23" t="n">
-        <v>33.80758258634143</v>
+        <v>33.80758258634149</v>
       </c>
       <c r="S23" t="n">
-        <v>12.26418782060781</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T23" t="n">
-        <v>2.355961917047094</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0430558431442073</v>
+        <v>0.04305584314420736</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2879613377268537</v>
+        <v>0.2879613377268542</v>
       </c>
       <c r="H24" t="n">
-        <v>2.781100288046193</v>
+        <v>2.781100288046197</v>
       </c>
       <c r="I24" t="n">
-        <v>9.914458338402639</v>
+        <v>9.914458338402655</v>
       </c>
       <c r="J24" t="n">
-        <v>27.20603147357086</v>
+        <v>27.20603147357091</v>
       </c>
       <c r="K24" t="n">
-        <v>46.49944110127005</v>
+        <v>46.49944110127013</v>
       </c>
       <c r="L24" t="n">
-        <v>62.52423694810479</v>
+        <v>62.5242369481049</v>
       </c>
       <c r="M24" t="n">
-        <v>72.96283544070322</v>
+        <v>72.96283544070334</v>
       </c>
       <c r="N24" t="n">
-        <v>74.89394458712586</v>
+        <v>74.89394458712599</v>
       </c>
       <c r="O24" t="n">
-        <v>68.513327577494</v>
+        <v>68.51332757749411</v>
       </c>
       <c r="P24" t="n">
-        <v>54.98798562259542</v>
+        <v>54.98798562259552</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.7580121631682</v>
+        <v>36.75801216316827</v>
       </c>
       <c r="R24" t="n">
-        <v>17.8788627055322</v>
+        <v>17.87886270553223</v>
       </c>
       <c r="S24" t="n">
-        <v>5.348755549443967</v>
+        <v>5.348755549443976</v>
       </c>
       <c r="T24" t="n">
-        <v>1.160686269170958</v>
+        <v>1.16068626917096</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01894482485045091</v>
+        <v>0.01894482485045094</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2414171123019207</v>
+        <v>0.2414171123019211</v>
       </c>
       <c r="H25" t="n">
-        <v>2.14641759846617</v>
+        <v>2.146417598466173</v>
       </c>
       <c r="I25" t="n">
-        <v>7.260070977225036</v>
+        <v>7.260070977225048</v>
       </c>
       <c r="J25" t="n">
-        <v>17.06818983974579</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K25" t="n">
-        <v>28.04827904744133</v>
+        <v>28.04827904744138</v>
       </c>
       <c r="L25" t="n">
-        <v>35.89214049623283</v>
+        <v>35.8921404962329</v>
       </c>
       <c r="M25" t="n">
-        <v>37.84322970383653</v>
+        <v>37.84322970383659</v>
       </c>
       <c r="N25" t="n">
-        <v>36.94340228525667</v>
+        <v>36.94340228525674</v>
       </c>
       <c r="O25" t="n">
-        <v>34.12321147336604</v>
+        <v>34.1232114733661</v>
       </c>
       <c r="P25" t="n">
-        <v>29.19830238240684</v>
+        <v>29.19830238240689</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.21539110375447</v>
+        <v>20.21539110375451</v>
       </c>
       <c r="R25" t="n">
-        <v>10.85499124950272</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S25" t="n">
-        <v>4.207241857116198</v>
+        <v>4.207241857116206</v>
       </c>
       <c r="T25" t="n">
-        <v>1.031509479835479</v>
+        <v>1.031509479835481</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01316820612555933</v>
+        <v>0.01316820612555935</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5381980393025916</v>
+        <v>0.5381980393025917</v>
       </c>
       <c r="H26" t="n">
-        <v>5.511820670007668</v>
+        <v>5.511820670007669</v>
       </c>
       <c r="I26" t="n">
-        <v>20.74887991021318</v>
+        <v>20.74887991021319</v>
       </c>
       <c r="J26" t="n">
-        <v>45.67888583825838</v>
+        <v>45.67888583825839</v>
       </c>
       <c r="K26" t="n">
-        <v>68.46080884193709</v>
+        <v>68.46080884193711</v>
       </c>
       <c r="L26" t="n">
-        <v>84.9316870872438</v>
+        <v>84.93168708724382</v>
       </c>
       <c r="M26" t="n">
-        <v>94.50286646869127</v>
+        <v>94.50286646869128</v>
       </c>
       <c r="N26" t="n">
-        <v>96.03202164785976</v>
+        <v>96.03202164785978</v>
       </c>
       <c r="O26" t="n">
-        <v>90.68031489454461</v>
+        <v>90.68031489454462</v>
       </c>
       <c r="P26" t="n">
-        <v>77.39355079926186</v>
+        <v>77.39355079926187</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.11933351673778</v>
+        <v>58.1193335167378</v>
       </c>
       <c r="R26" t="n">
-        <v>33.80758258634145</v>
+        <v>33.80758258634146</v>
       </c>
       <c r="S26" t="n">
         <v>12.26418782060782</v>
       </c>
       <c r="T26" t="n">
-        <v>2.355961917047096</v>
+        <v>2.355961917047097</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04305584314420732</v>
+        <v>0.04305584314420733</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2879613377268538</v>
+        <v>0.2879613377268539</v>
       </c>
       <c r="H27" t="n">
-        <v>2.781100288046194</v>
+        <v>2.781100288046195</v>
       </c>
       <c r="I27" t="n">
-        <v>9.914458338402644</v>
+        <v>9.914458338402646</v>
       </c>
       <c r="J27" t="n">
         <v>27.20603147357088</v>
       </c>
       <c r="K27" t="n">
-        <v>46.49944110127008</v>
+        <v>46.49944110127009</v>
       </c>
       <c r="L27" t="n">
-        <v>62.52423694810483</v>
+        <v>62.52423694810484</v>
       </c>
       <c r="M27" t="n">
-        <v>72.96283544070326</v>
+        <v>72.96283544070329</v>
       </c>
       <c r="N27" t="n">
-        <v>74.89394458712592</v>
+        <v>74.89394458712593</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51332757749404</v>
+        <v>68.51332757749405</v>
       </c>
       <c r="P27" t="n">
-        <v>54.98798562259546</v>
+        <v>54.98798562259547</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.75801216316822</v>
+        <v>36.75801216316823</v>
       </c>
       <c r="R27" t="n">
-        <v>17.87886270553221</v>
+        <v>17.87886270553222</v>
       </c>
       <c r="S27" t="n">
-        <v>5.34875554944397</v>
+        <v>5.348755549443972</v>
       </c>
       <c r="T27" t="n">
         <v>1.160686269170959</v>
@@ -33099,7 +33099,7 @@
         <v>2.146417598466171</v>
       </c>
       <c r="I28" t="n">
-        <v>7.260070977225041</v>
+        <v>7.260070977225042</v>
       </c>
       <c r="J28" t="n">
         <v>17.06818983974581</v>
@@ -33108,28 +33108,28 @@
         <v>28.04827904744135</v>
       </c>
       <c r="L28" t="n">
-        <v>35.89214049623286</v>
+        <v>35.89214049623287</v>
       </c>
       <c r="M28" t="n">
         <v>37.84322970383656</v>
       </c>
       <c r="N28" t="n">
-        <v>36.9434022852567</v>
+        <v>36.94340228525671</v>
       </c>
       <c r="O28" t="n">
-        <v>34.12321147336606</v>
+        <v>34.12321147336607</v>
       </c>
       <c r="P28" t="n">
-        <v>29.19830238240685</v>
+        <v>29.19830238240686</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.21539110375448</v>
+        <v>20.21539110375449</v>
       </c>
       <c r="R28" t="n">
         <v>10.85499124950273</v>
       </c>
       <c r="S28" t="n">
-        <v>4.207241857116201</v>
+        <v>4.207241857116202</v>
       </c>
       <c r="T28" t="n">
         <v>1.03150947983548</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5381980393025926</v>
+        <v>0.5381980393025922</v>
       </c>
       <c r="H29" t="n">
-        <v>5.511820670007677</v>
+        <v>5.511820670007674</v>
       </c>
       <c r="I29" t="n">
-        <v>20.74887991021322</v>
+        <v>20.7488799102132</v>
       </c>
       <c r="J29" t="n">
-        <v>45.67888583825846</v>
+        <v>45.67888583825842</v>
       </c>
       <c r="K29" t="n">
-        <v>68.46080884193721</v>
+        <v>68.46080884193717</v>
       </c>
       <c r="L29" t="n">
-        <v>84.93168708724394</v>
+        <v>84.93168708724389</v>
       </c>
       <c r="M29" t="n">
-        <v>94.50286646869142</v>
+        <v>94.50286646869137</v>
       </c>
       <c r="N29" t="n">
-        <v>96.03202164785992</v>
+        <v>96.03202164785986</v>
       </c>
       <c r="O29" t="n">
-        <v>90.68031489454476</v>
+        <v>90.68031489454471</v>
       </c>
       <c r="P29" t="n">
-        <v>77.393550799262</v>
+        <v>77.39355079926194</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.11933351673788</v>
+        <v>58.11933351673785</v>
       </c>
       <c r="R29" t="n">
-        <v>33.80758258634151</v>
+        <v>33.80758258634149</v>
       </c>
       <c r="S29" t="n">
-        <v>12.26418782060784</v>
+        <v>12.26418782060783</v>
       </c>
       <c r="T29" t="n">
-        <v>2.3559619170471</v>
+        <v>2.355961917047098</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04305584314420739</v>
+        <v>0.04305584314420736</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2879613377268543</v>
+        <v>0.2879613377268542</v>
       </c>
       <c r="H30" t="n">
-        <v>2.781100288046199</v>
+        <v>2.781100288046197</v>
       </c>
       <c r="I30" t="n">
-        <v>9.914458338402662</v>
+        <v>9.914458338402655</v>
       </c>
       <c r="J30" t="n">
-        <v>27.20603147357092</v>
+        <v>27.20603147357091</v>
       </c>
       <c r="K30" t="n">
-        <v>46.49944110127016</v>
+        <v>46.49944110127013</v>
       </c>
       <c r="L30" t="n">
-        <v>62.52423694810494</v>
+        <v>62.5242369481049</v>
       </c>
       <c r="M30" t="n">
-        <v>72.96283544070339</v>
+        <v>72.96283544070334</v>
       </c>
       <c r="N30" t="n">
-        <v>74.89394458712603</v>
+        <v>74.89394458712599</v>
       </c>
       <c r="O30" t="n">
-        <v>68.51332757749415</v>
+        <v>68.51332757749411</v>
       </c>
       <c r="P30" t="n">
-        <v>54.98798562259555</v>
+        <v>54.98798562259552</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.75801216316829</v>
+        <v>36.75801216316827</v>
       </c>
       <c r="R30" t="n">
-        <v>17.87886270553224</v>
+        <v>17.87886270553223</v>
       </c>
       <c r="S30" t="n">
-        <v>5.34875554944398</v>
+        <v>5.348755549443976</v>
       </c>
       <c r="T30" t="n">
-        <v>1.160686269170961</v>
+        <v>1.16068626917096</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01894482485045095</v>
+        <v>0.01894482485045094</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2414171123019213</v>
+        <v>0.2414171123019211</v>
       </c>
       <c r="H31" t="n">
-        <v>2.146417598466174</v>
+        <v>2.146417598466173</v>
       </c>
       <c r="I31" t="n">
-        <v>7.260070977225054</v>
+        <v>7.260070977225048</v>
       </c>
       <c r="J31" t="n">
-        <v>17.06818983974583</v>
+        <v>17.06818983974582</v>
       </c>
       <c r="K31" t="n">
-        <v>28.04827904744139</v>
+        <v>28.04827904744138</v>
       </c>
       <c r="L31" t="n">
-        <v>35.89214049623292</v>
+        <v>35.8921404962329</v>
       </c>
       <c r="M31" t="n">
-        <v>37.84322970383662</v>
+        <v>37.84322970383659</v>
       </c>
       <c r="N31" t="n">
-        <v>36.94340228525676</v>
+        <v>36.94340228525674</v>
       </c>
       <c r="O31" t="n">
-        <v>34.12321147336612</v>
+        <v>34.1232114733661</v>
       </c>
       <c r="P31" t="n">
-        <v>29.1983023824069</v>
+        <v>29.19830238240689</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.21539110375452</v>
+        <v>20.21539110375451</v>
       </c>
       <c r="R31" t="n">
-        <v>10.85499124950275</v>
+        <v>10.85499124950274</v>
       </c>
       <c r="S31" t="n">
-        <v>4.207241857116209</v>
+        <v>4.207241857116206</v>
       </c>
       <c r="T31" t="n">
-        <v>1.031509479835482</v>
+        <v>1.031509479835481</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01316820612555936</v>
+        <v>0.01316820612555935</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>82.05880718086244</v>
+        <v>118.4046881340218</v>
       </c>
       <c r="K11" t="n">
-        <v>311.0268412104045</v>
+        <v>311.0268412104047</v>
       </c>
       <c r="L11" t="n">
-        <v>436.3310538397147</v>
+        <v>436.3310538397149</v>
       </c>
       <c r="M11" t="n">
-        <v>491.7141455122144</v>
+        <v>491.7141455122146</v>
       </c>
       <c r="N11" t="n">
-        <v>478.184909211209</v>
+        <v>478.1849092112092</v>
       </c>
       <c r="O11" t="n">
-        <v>398.765753755993</v>
+        <v>398.7657537559932</v>
       </c>
       <c r="P11" t="n">
-        <v>307.8550623710328</v>
+        <v>118.0037330662496</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.5054483516238</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>278.3080800509556</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L12" t="n">
-        <v>432.041252271454</v>
+        <v>432.0412522714541</v>
       </c>
       <c r="M12" t="n">
-        <v>562.8955157540634</v>
+        <v>562.8955157540635</v>
       </c>
       <c r="N12" t="n">
-        <v>211.7581573735765</v>
+        <v>211.7581573735762</v>
       </c>
       <c r="O12" t="n">
-        <v>464.6748940261313</v>
+        <v>464.6748940261314</v>
       </c>
       <c r="P12" t="n">
-        <v>360.1353788303704</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q12" t="n">
         <v>196.1232947748796</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.12241407749268</v>
+        <v>60.12241407749271</v>
       </c>
       <c r="K13" t="n">
-        <v>164.5027934696455</v>
+        <v>164.5027934696456</v>
       </c>
       <c r="L13" t="n">
-        <v>240.0263434594634</v>
+        <v>240.0263434594635</v>
       </c>
       <c r="M13" t="n">
-        <v>259.5394798664026</v>
+        <v>259.5394798664028</v>
       </c>
       <c r="N13" t="n">
-        <v>259.0728197427709</v>
+        <v>259.072819742771</v>
       </c>
       <c r="O13" t="n">
         <v>236.0923306946069</v>
       </c>
       <c r="P13" t="n">
-        <v>195.3137218384437</v>
+        <v>195.3137218384438</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.5743136086225</v>
+        <v>84.57431360862255</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.4046881340216</v>
+        <v>118.4046881340218</v>
       </c>
       <c r="K14" t="n">
-        <v>311.0268412104045</v>
+        <v>311.0268412104047</v>
       </c>
       <c r="L14" t="n">
-        <v>436.3310538397147</v>
+        <v>436.3310538397149</v>
       </c>
       <c r="M14" t="n">
-        <v>301.8628162074318</v>
+        <v>455.3682645590544</v>
       </c>
       <c r="N14" t="n">
-        <v>478.1849092112089</v>
+        <v>478.1849092112092</v>
       </c>
       <c r="O14" t="n">
-        <v>398.765753755993</v>
+        <v>398.7657537559932</v>
       </c>
       <c r="P14" t="n">
-        <v>307.8550623710328</v>
+        <v>307.8550623710329</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.5054483516236</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47551947899348</v>
+        <v>88.06880574943573</v>
       </c>
       <c r="K15" t="n">
-        <v>278.3080800509556</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>432.0412522714541</v>
       </c>
       <c r="M15" t="n">
-        <v>562.8955157540632</v>
+        <v>291.3842719870464</v>
       </c>
       <c r="N15" t="n">
-        <v>591.323890166037</v>
+        <v>591.3238901660372</v>
       </c>
       <c r="O15" t="n">
-        <v>464.6748940261313</v>
+        <v>464.6748940261314</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1353788303704</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.1232947748795</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>240.0263434594634</v>
       </c>
       <c r="M16" t="n">
-        <v>259.5394798664026</v>
+        <v>259.5394798664028</v>
       </c>
       <c r="N16" t="n">
-        <v>259.0728197427709</v>
+        <v>259.072819742771</v>
       </c>
       <c r="O16" t="n">
         <v>236.0923306946069</v>
@@ -35823,7 +35823,7 @@
         <v>195.3137218384438</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.57431360862253</v>
+        <v>84.57431360862255</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>82.05880718086267</v>
+        <v>118.4046881340217</v>
       </c>
       <c r="K17" t="n">
-        <v>311.0268412104045</v>
+        <v>311.0268412104046</v>
       </c>
       <c r="L17" t="n">
-        <v>436.3310538397147</v>
+        <v>436.3310538397149</v>
       </c>
       <c r="M17" t="n">
-        <v>491.7141455122144</v>
+        <v>491.7141455122145</v>
       </c>
       <c r="N17" t="n">
-        <v>478.1849092112089</v>
+        <v>478.1849092112091</v>
       </c>
       <c r="O17" t="n">
-        <v>398.765753755993</v>
+        <v>398.7657537559932</v>
       </c>
       <c r="P17" t="n">
-        <v>307.8550623710328</v>
+        <v>118.0037330662496</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>153.5054483516237</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.06880574943565</v>
+        <v>88.0688057494357</v>
       </c>
       <c r="K18" t="n">
-        <v>278.3080800509556</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0412522714539</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M18" t="n">
-        <v>562.8955157540632</v>
+        <v>562.8955157540634</v>
       </c>
       <c r="N18" t="n">
-        <v>123.6893516241409</v>
+        <v>401.9974316750964</v>
       </c>
       <c r="O18" t="n">
-        <v>464.6748940261313</v>
+        <v>464.6748940261314</v>
       </c>
       <c r="P18" t="n">
-        <v>360.1353788303704</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1232947748795</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>61.99190303192962</v>
+        <v>61.99190303192967</v>
       </c>
       <c r="L19" t="n">
         <v>137.5154530217475</v>
@@ -36051,13 +36051,13 @@
         <v>157.0285894286868</v>
       </c>
       <c r="N19" t="n">
-        <v>156.561929305055</v>
+        <v>156.5619293050551</v>
       </c>
       <c r="O19" t="n">
         <v>133.581440256891</v>
       </c>
       <c r="P19" t="n">
-        <v>92.80283140072784</v>
+        <v>92.80283140072788</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>118.4046881340217</v>
       </c>
       <c r="K20" t="n">
-        <v>311.0268412104045</v>
+        <v>311.0268412104046</v>
       </c>
       <c r="L20" t="n">
-        <v>436.3310538397147</v>
+        <v>436.3310538397149</v>
       </c>
       <c r="M20" t="n">
-        <v>491.7141455122144</v>
+        <v>491.7141455122145</v>
       </c>
       <c r="N20" t="n">
-        <v>478.1849092112089</v>
+        <v>288.3335799064257</v>
       </c>
       <c r="O20" t="n">
-        <v>398.765753755993</v>
+        <v>398.7657537559932</v>
       </c>
       <c r="P20" t="n">
-        <v>236.4084212002723</v>
+        <v>307.8550623710329</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.5054483516236</v>
+        <v>153.5054483516237</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.06880574943565</v>
+        <v>88.0688057494357</v>
       </c>
       <c r="K21" t="n">
-        <v>278.3080800509556</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0412522714539</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M21" t="n">
-        <v>559.9358712382989</v>
+        <v>95.26097721216691</v>
       </c>
       <c r="N21" t="n">
-        <v>591.323890166037</v>
+        <v>591.3238901660372</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>464.6748940261314</v>
       </c>
       <c r="P21" t="n">
-        <v>360.1353788303704</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1232947748795</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.99190303192962</v>
+        <v>61.99190303192967</v>
       </c>
       <c r="L22" t="n">
         <v>137.5154530217475</v>
@@ -36288,13 +36288,13 @@
         <v>157.0285894286868</v>
       </c>
       <c r="N22" t="n">
-        <v>156.561929305055</v>
+        <v>156.5619293050551</v>
       </c>
       <c r="O22" t="n">
         <v>133.581440256891</v>
       </c>
       <c r="P22" t="n">
-        <v>92.80283140072784</v>
+        <v>92.80283140072788</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.4046881340217</v>
       </c>
       <c r="K23" t="n">
-        <v>311.0268412104045</v>
+        <v>311.0268412104046</v>
       </c>
       <c r="L23" t="n">
-        <v>436.3310538397147</v>
+        <v>246.4797245349313</v>
       </c>
       <c r="M23" t="n">
-        <v>491.7141455122144</v>
+        <v>491.7141455122145</v>
       </c>
       <c r="N23" t="n">
-        <v>478.1849092112089</v>
+        <v>478.1849092112091</v>
       </c>
       <c r="O23" t="n">
-        <v>398.765753755993</v>
+        <v>398.7657537559932</v>
       </c>
       <c r="P23" t="n">
-        <v>307.8550623710328</v>
+        <v>307.8550623710329</v>
       </c>
       <c r="Q23" t="n">
-        <v>82.0588071808628</v>
+        <v>153.5054483516237</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.06880574943565</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>278.3080800509556</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L24" t="n">
-        <v>432.0412522714539</v>
+        <v>432.041252271454</v>
       </c>
       <c r="M24" t="n">
-        <v>562.8955157540632</v>
+        <v>562.8955157540634</v>
       </c>
       <c r="N24" t="n">
-        <v>591.323890166037</v>
+        <v>211.7581573735767</v>
       </c>
       <c r="O24" t="n">
-        <v>464.6748940261313</v>
+        <v>464.6748940261314</v>
       </c>
       <c r="P24" t="n">
-        <v>88.62413506335405</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>61.99190303192962</v>
+        <v>61.99190303192967</v>
       </c>
       <c r="L25" t="n">
         <v>137.5154530217475</v>
@@ -36525,13 +36525,13 @@
         <v>157.0285894286868</v>
       </c>
       <c r="N25" t="n">
-        <v>156.561929305055</v>
+        <v>156.5619293050551</v>
       </c>
       <c r="O25" t="n">
         <v>133.581440256891</v>
       </c>
       <c r="P25" t="n">
-        <v>92.80283140072784</v>
+        <v>92.80283140072788</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>220.9155785717376</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5377316481204</v>
+        <v>413.5377316481205</v>
       </c>
       <c r="L26" t="n">
         <v>538.8419442774307</v>
@@ -36604,19 +36604,19 @@
         <v>594.2250359499303</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8037683751871</v>
+        <v>580.6957996489249</v>
       </c>
       <c r="O26" t="n">
         <v>501.2766441937089</v>
       </c>
       <c r="P26" t="n">
-        <v>410.3659528087487</v>
+        <v>308.4739215350115</v>
       </c>
       <c r="Q26" t="n">
         <v>256.0163387893396</v>
       </c>
       <c r="R26" t="n">
-        <v>46.58656938495214</v>
+        <v>46.58656938495216</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.06880574943567</v>
+        <v>88.06880574943568</v>
       </c>
       <c r="K27" t="n">
         <v>278.3080800509556</v>
       </c>
       <c r="L27" t="n">
-        <v>432.041252271454</v>
+        <v>160.5300085044365</v>
       </c>
       <c r="M27" t="n">
         <v>562.8955157540634</v>
       </c>
       <c r="N27" t="n">
-        <v>123.6893516241402</v>
+        <v>591.3238901660371</v>
       </c>
       <c r="O27" t="n">
         <v>464.6748940261313</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1353788303704</v>
+        <v>360.1353788303705</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.1232947748796</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12241407749268</v>
+        <v>60.12241407749269</v>
       </c>
       <c r="K28" t="n">
         <v>164.5027934696455</v>
@@ -36771,7 +36771,7 @@
         <v>195.3137218384437</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5743136086225</v>
+        <v>84.57431360862252</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>119.0235472979993</v>
+        <v>220.9155785717376</v>
       </c>
       <c r="K29" t="n">
         <v>413.5377316481205</v>
       </c>
       <c r="L29" t="n">
-        <v>538.8419442774308</v>
+        <v>538.8419442774307</v>
       </c>
       <c r="M29" t="n">
-        <v>594.2250359499304</v>
+        <v>492.3330046761925</v>
       </c>
       <c r="N29" t="n">
         <v>580.695799648925</v>
@@ -36853,7 +36853,7 @@
         <v>256.0163387893396</v>
       </c>
       <c r="R29" t="n">
-        <v>46.58656938495218</v>
+        <v>46.58656938495216</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.0688057494357</v>
       </c>
       <c r="K30" t="n">
-        <v>94.86564203337338</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0412522714541</v>
+        <v>242.7147937805122</v>
       </c>
       <c r="M30" t="n">
-        <v>562.8955157540635</v>
+        <v>562.8955157540634</v>
       </c>
       <c r="N30" t="n">
         <v>591.3238901660372</v>
@@ -36929,7 +36929,7 @@
         <v>360.1353788303705</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12241407749269</v>
+        <v>60.12241407749268</v>
       </c>
       <c r="K31" t="n">
         <v>164.5027934696456</v>
@@ -36996,7 +36996,7 @@
         <v>240.0263434594634</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5394798664027</v>
+        <v>259.5394798664026</v>
       </c>
       <c r="N31" t="n">
         <v>259.0728197427709</v>
@@ -37008,7 +37008,7 @@
         <v>195.3137218384438</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.57431360862253</v>
+        <v>84.5743136086225</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9155785717377</v>
+        <v>220.9155785717376</v>
       </c>
       <c r="K32" t="n">
         <v>413.5377316481205</v>
       </c>
       <c r="L32" t="n">
-        <v>538.8419442774308</v>
+        <v>538.8419442774307</v>
       </c>
       <c r="M32" t="n">
         <v>594.2250359499305</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8037683751867</v>
+        <v>478.8037683751871</v>
       </c>
       <c r="O32" t="n">
         <v>501.2766441937091</v>
@@ -37087,10 +37087,10 @@
         <v>410.3659528087488</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0163387893397</v>
+        <v>256.0163387893396</v>
       </c>
       <c r="R32" t="n">
-        <v>46.58656938495225</v>
+        <v>46.58656938495222</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.0688057494357</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>278.3080800509557</v>
@@ -37157,10 +37157,10 @@
         <v>562.8955157540634</v>
       </c>
       <c r="N33" t="n">
-        <v>123.6893516241397</v>
+        <v>591.3238901660372</v>
       </c>
       <c r="O33" t="n">
-        <v>464.6748940261314</v>
+        <v>85.10916123366958</v>
       </c>
       <c r="P33" t="n">
         <v>360.1353788303705</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12241407749276</v>
+        <v>60.12241407749273</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5027934696432</v>
+        <v>164.5027934696456</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0263434594635</v>
+        <v>240.0263434594623</v>
       </c>
       <c r="M34" t="n">
         <v>259.5394798664028</v>
       </c>
       <c r="N34" t="n">
-        <v>259.0728197427711</v>
+        <v>259.072819742771</v>
       </c>
       <c r="O34" t="n">
-        <v>236.092330694607</v>
+        <v>236.0923306946069</v>
       </c>
       <c r="P34" t="n">
         <v>195.3137218384438</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.57431360862259</v>
+        <v>84.57431360862256</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.4046881340217</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>311.0268412104046</v>
@@ -37312,7 +37312,7 @@
         <v>436.3310538397149</v>
       </c>
       <c r="M35" t="n">
-        <v>455.3682645590546</v>
+        <v>491.7141455122145</v>
       </c>
       <c r="N35" t="n">
         <v>478.1849092112091</v>
@@ -37321,10 +37321,10 @@
         <v>398.7657537559932</v>
       </c>
       <c r="P35" t="n">
-        <v>307.8550623710329</v>
+        <v>236.4084212002705</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>153.5054483516237</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>562.8955157540634</v>
       </c>
       <c r="N36" t="n">
-        <v>123.6893516241409</v>
+        <v>123.68935162414</v>
       </c>
       <c r="O36" t="n">
         <v>464.6748940261314</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>118.4046881340217</v>
       </c>
       <c r="K38" t="n">
-        <v>239.5802000396427</v>
+        <v>311.0268412104046</v>
       </c>
       <c r="L38" t="n">
         <v>436.3310538397149</v>
@@ -37558,7 +37558,7 @@
         <v>398.7657537559932</v>
       </c>
       <c r="P38" t="n">
-        <v>307.8550623710329</v>
+        <v>118.0037330662487</v>
       </c>
       <c r="Q38" t="n">
         <v>153.5054483516237</v>
@@ -37622,13 +37622,13 @@
         <v>88.0688057494357</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3080800509557</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>432.041252271454</v>
       </c>
       <c r="M39" t="n">
-        <v>291.3842719870452</v>
+        <v>562.8955157540634</v>
       </c>
       <c r="N39" t="n">
         <v>591.3238901660372</v>
@@ -37640,7 +37640,7 @@
         <v>360.1353788303705</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.796836283937676</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>118.4046881340217</v>
       </c>
       <c r="K41" t="n">
-        <v>239.5802000396427</v>
+        <v>121.1755119056201</v>
       </c>
       <c r="L41" t="n">
         <v>436.3310538397149</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>94.86564203337322</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L42" t="n">
         <v>432.041252271454</v>
@@ -37868,16 +37868,16 @@
         <v>562.8955157540634</v>
       </c>
       <c r="N42" t="n">
-        <v>591.3238901660372</v>
+        <v>571.8935362039458</v>
       </c>
       <c r="O42" t="n">
         <v>464.6748940261314</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1353788303705</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>156.5619293050551</v>
       </c>
       <c r="O43" t="n">
-        <v>211.0508401893095</v>
+        <v>133.581440256891</v>
       </c>
       <c r="P43" t="n">
         <v>92.80283140072788</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>85.20064107451881</v>
       </c>
       <c r="R43" t="n">
-        <v>7.731241142103098</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.4046881340217</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>311.0268412104046</v>
@@ -38026,13 +38026,13 @@
         <v>491.7141455122145</v>
       </c>
       <c r="N44" t="n">
-        <v>478.1849092112091</v>
+        <v>406.7382680404464</v>
       </c>
       <c r="O44" t="n">
         <v>398.7657537559932</v>
       </c>
       <c r="P44" t="n">
-        <v>118.0037330662496</v>
+        <v>307.8550623710329</v>
       </c>
       <c r="Q44" t="n">
         <v>153.5054483516237</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.0688057494357</v>
       </c>
       <c r="K45" t="n">
-        <v>94.86564203337322</v>
+        <v>278.3080800509557</v>
       </c>
       <c r="L45" t="n">
         <v>432.041252271454</v>
       </c>
       <c r="M45" t="n">
-        <v>562.8955157540634</v>
+        <v>95.26097721216553</v>
       </c>
       <c r="N45" t="n">
         <v>591.3238901660372</v>
@@ -38114,7 +38114,7 @@
         <v>360.1353788303705</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.1232947748796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>137.5154530217475</v>
       </c>
       <c r="M46" t="n">
-        <v>242.2292305032084</v>
+        <v>157.0285894286868</v>
       </c>
       <c r="N46" t="n">
         <v>156.5619293050551</v>
@@ -38193,7 +38193,7 @@
         <v>92.80283140072788</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>85.20064107451859</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
